--- a/meta/stores/PageTransitDataStore.xlsx
+++ b/meta/stores/PageTransitDataStore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-front-core/meta/stores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhaino/Desktop/dapanda-front-core/meta/stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5881AFE4-6439-7047-BF99-3383849EA9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17869D26-A40A-D742-8020-54E605FB6F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VueStore" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>パッケージ</t>
   </si>
@@ -636,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1170,12 +1170,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1336,9 +1386,45 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1360,48 +1446,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1815,8 +1863,8 @@
   </sheetPr>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1890,10 +1938,10 @@
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1905,10 +1953,10 @@
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="94"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="82" t="s">
         <v>30</v>
       </c>
@@ -1924,11 +1972,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="65"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -1963,10 +2011,10 @@
       <c r="G12"/>
     </row>
     <row r="13" spans="1:11" s="32" customFormat="1">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="99"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="64" t="s">
         <v>14</v>
       </c>
@@ -2109,41 +2157,41 @@
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="92" t="s">
+      <c r="E24" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="92" t="s">
+      <c r="G24" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="92"/>
+      <c r="H24" s="100"/>
       <c r="I24" s="16"/>
       <c r="J24" s="17"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="100"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
       <c r="I25" s="18"/>
       <c r="J25" s="29"/>
       <c r="K25" s="15"/>
@@ -2393,37 +2441,37 @@
       <c r="K43" s="15"/>
     </row>
     <row r="44" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A44" s="100" t="s">
+      <c r="A44" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="100" t="s">
+      <c r="B44" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="104"/>
-      <c r="E44" s="92" t="s">
+      <c r="D44" s="95"/>
+      <c r="E44" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="107"/>
-      <c r="G44" s="92" t="s">
+      <c r="F44" s="103"/>
+      <c r="G44" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="92"/>
+      <c r="H44" s="100"/>
       <c r="I44" s="16"/>
       <c r="J44" s="17"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="100"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
       <c r="I45" s="18"/>
       <c r="J45" s="29"/>
       <c r="K45" s="15"/>
@@ -2564,37 +2612,37 @@
       <c r="K56" s="15"/>
     </row>
     <row r="57" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="100" t="s">
+      <c r="B57" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="103" t="s">
+      <c r="C57" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="104"/>
-      <c r="E57" s="92" t="s">
+      <c r="D57" s="95"/>
+      <c r="E57" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="107"/>
-      <c r="G57" s="92" t="s">
+      <c r="F57" s="103"/>
+      <c r="G57" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="H57" s="92"/>
+      <c r="H57" s="100"/>
       <c r="I57" s="16"/>
       <c r="J57" s="17"/>
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="100"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
+      <c r="A58" s="94"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
       <c r="I58" s="18"/>
       <c r="J58" s="29"/>
       <c r="K58" s="15"/>
@@ -2828,39 +2876,41 @@
       <c r="K76" s="15"/>
     </row>
     <row r="77" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A77" s="112" t="s">
+      <c r="A77" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="112" t="s">
+      <c r="B77" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="103" t="s">
+      <c r="C77" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="107"/>
-      <c r="E77" s="101" t="s">
+      <c r="D77" s="103"/>
+      <c r="E77" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="101" t="s">
+      <c r="F77" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="G77" s="103" t="s">
+      <c r="G77" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="H77" s="109"/>
       <c r="I77" s="16"/>
       <c r="J77" s="17"/>
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="113"/>
-      <c r="B78" s="113"/>
-      <c r="C78" s="105"/>
-      <c r="D78" s="108"/>
-      <c r="E78" s="102"/>
-      <c r="F78" s="102"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="110"/>
+      <c r="A78" s="102"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="93"/>
       <c r="I78" s="18"/>
       <c r="J78" s="29"/>
       <c r="K78" s="15"/>
@@ -2878,10 +2928,10 @@
       <c r="D79" s="89"/>
       <c r="E79" s="83"/>
       <c r="F79" s="68"/>
-      <c r="G79" s="20" t="s">
+      <c r="G79" s="20"/>
+      <c r="H79" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="28"/>
       <c r="K79" s="15"/>
@@ -2901,7 +2951,7 @@
       <c r="E80" s="83"/>
       <c r="F80" s="68"/>
       <c r="G80" s="20"/>
-      <c r="H80" s="21"/>
+      <c r="H80" s="113"/>
       <c r="I80" s="21"/>
       <c r="J80" s="28"/>
       <c r="K80" s="15"/>
@@ -2920,8 +2970,10 @@
       <c r="D81" s="89"/>
       <c r="E81" s="89"/>
       <c r="F81" s="68"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="21"/>
+      <c r="G81" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="113"/>
       <c r="I81" s="21"/>
       <c r="J81" s="22"/>
       <c r="K81" s="15"/>
@@ -2937,7 +2989,7 @@
       <c r="E82" s="83"/>
       <c r="F82" s="68"/>
       <c r="G82" s="20"/>
-      <c r="H82" s="21"/>
+      <c r="H82" s="113"/>
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
       <c r="K82" s="15"/>
@@ -2953,7 +3005,7 @@
       <c r="E83" s="83"/>
       <c r="F83" s="68"/>
       <c r="G83" s="20"/>
-      <c r="H83" s="21"/>
+      <c r="H83" s="113"/>
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
       <c r="K83" s="15"/>
@@ -2969,7 +3021,7 @@
       <c r="E84" s="84"/>
       <c r="F84" s="74"/>
       <c r="G84" s="73"/>
-      <c r="H84" s="75"/>
+      <c r="H84" s="114"/>
       <c r="I84" s="75"/>
       <c r="J84" s="76"/>
       <c r="K84" s="15"/>
@@ -2982,7 +3034,7 @@
       <c r="E85" s="85"/>
       <c r="F85" s="69"/>
       <c r="G85" s="25"/>
-      <c r="H85" s="26"/>
+      <c r="H85" s="115"/>
       <c r="I85" s="26"/>
       <c r="J85" s="27"/>
       <c r="K85" s="15"/>
@@ -3015,39 +3067,41 @@
       <c r="K89" s="15"/>
     </row>
     <row r="90" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A90" s="100" t="s">
+      <c r="A90" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="100" t="s">
+      <c r="B90" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="103" t="s">
+      <c r="C90" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="104"/>
-      <c r="E90" s="111" t="s">
+      <c r="D90" s="95"/>
+      <c r="E90" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="101" t="s">
+      <c r="F90" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="G90" s="92" t="s">
+      <c r="G90" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="H90" s="92"/>
       <c r="I90" s="16"/>
       <c r="J90" s="17"/>
       <c r="K90" s="9"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="100"/>
-      <c r="B91" s="100"/>
-      <c r="C91" s="105"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="111"/>
-      <c r="F91" s="102"/>
-      <c r="G91" s="92"/>
-      <c r="H91" s="92"/>
+      <c r="A91" s="94"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="97"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="99"/>
+      <c r="H91" s="93"/>
       <c r="I91" s="18"/>
       <c r="J91" s="29"/>
       <c r="K91" s="15"/>
@@ -3062,7 +3116,7 @@
       <c r="E92" s="83"/>
       <c r="F92" s="68"/>
       <c r="G92" s="20"/>
-      <c r="H92" s="21"/>
+      <c r="H92" s="112"/>
       <c r="I92" s="21"/>
       <c r="J92" s="28"/>
       <c r="K92" s="15"/>
@@ -3078,7 +3132,7 @@
       <c r="E93" s="83"/>
       <c r="F93" s="68"/>
       <c r="G93" s="20"/>
-      <c r="H93" s="21"/>
+      <c r="H93" s="113"/>
       <c r="I93" s="21"/>
       <c r="J93" s="28"/>
       <c r="K93" s="15"/>
@@ -3094,7 +3148,7 @@
       <c r="E94" s="89"/>
       <c r="F94" s="68"/>
       <c r="G94" s="20"/>
-      <c r="H94" s="21"/>
+      <c r="H94" s="113"/>
       <c r="I94" s="21"/>
       <c r="J94" s="22"/>
       <c r="K94" s="15"/>
@@ -3110,7 +3164,7 @@
       <c r="E95" s="83"/>
       <c r="F95" s="68"/>
       <c r="G95" s="20"/>
-      <c r="H95" s="21"/>
+      <c r="H95" s="113"/>
       <c r="I95" s="21"/>
       <c r="J95" s="22"/>
       <c r="K95" s="15"/>
@@ -3126,7 +3180,7 @@
       <c r="E96" s="83"/>
       <c r="F96" s="68"/>
       <c r="G96" s="20"/>
-      <c r="H96" s="21"/>
+      <c r="H96" s="113"/>
       <c r="I96" s="21"/>
       <c r="J96" s="22"/>
       <c r="K96" s="15"/>
@@ -3142,7 +3196,7 @@
       <c r="E97" s="84"/>
       <c r="F97" s="74"/>
       <c r="G97" s="73"/>
-      <c r="H97" s="75"/>
+      <c r="H97" s="114"/>
       <c r="I97" s="75"/>
       <c r="J97" s="76"/>
       <c r="K97" s="15"/>
@@ -3155,32 +3209,13 @@
       <c r="E98" s="85"/>
       <c r="F98" s="69"/>
       <c r="G98" s="25"/>
-      <c r="H98" s="26"/>
+      <c r="H98" s="115"/>
       <c r="I98" s="26"/>
       <c r="J98" s="27"/>
       <c r="K98" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="G77:H78"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:H91"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
+  <mergeCells count="37">
     <mergeCell ref="G44:H45"/>
     <mergeCell ref="G57:H58"/>
     <mergeCell ref="A9:B9"/>
@@ -3197,6 +3232,27 @@
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
@@ -3206,7 +3262,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{CCFC1331-CEEF-574E-9BCC-37D38F486896}">
       <formula1>adjustFieldName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F32 F92:F98 F79:F85" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F32 F92:G98 F79:G85" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
       <formula1>yesNo</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/stores/PageTransitDataStore.xlsx
+++ b/meta/stores/PageTransitDataStore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhaino/Desktop/dapanda-front-core/meta/stores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-front-core/meta/stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17869D26-A40A-D742-8020-54E605FB6F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33361686-C7AE-1B4D-A960-F8187F4E9BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
   <si>
     <t>パッケージ</t>
   </si>
@@ -544,7 +544,102 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>update</t>
+    <t>restoreFlg</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページリロード時にリストアを試みます</t>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ココロミマス </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>restore</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページリロード時にリストアを試みます</t>
+    <rPh sb="14" eb="15">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>trueでリストア指示</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シジ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>updateLocation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>updateData</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新データ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウシｎ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データの更新を試みます</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">コウシｎ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>undefined</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リストアの際に参照するオプション値</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">サイニ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">サンショウスル </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dataRestoreOptions</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RestorePageTransitDataOptions | undefined</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>import {RestorePageTransitDataOptions} from "@/common/RestorePageTransitDataOptions"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>options</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページ間データのロード時のオプションです</t>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ジノ </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1225,7 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1386,70 +1481,74 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1861,10 +1960,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1938,10 +2037,10 @@
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="106"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1953,10 +2052,10 @@
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="106"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="82" t="s">
         <v>30</v>
       </c>
@@ -1972,11 +2071,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="65"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -2011,10 +2110,10 @@
       <c r="G12"/>
     </row>
     <row r="13" spans="1:11" s="32" customFormat="1">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="111"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="64" t="s">
         <v>14</v>
       </c>
@@ -2071,8 +2170,12 @@
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="51"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="51">
+        <v>1</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
@@ -2157,41 +2260,41 @@
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="100" t="s">
+      <c r="C24" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="100" t="s">
+      <c r="E24" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="98" t="s">
+      <c r="F24" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="100" t="s">
+      <c r="G24" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="100"/>
+      <c r="H24" s="96"/>
       <c r="I24" s="16"/>
       <c r="J24" s="17"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="18"/>
       <c r="J25" s="29"/>
       <c r="K25" s="15"/>
@@ -2245,40 +2348,55 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="19">
-        <f t="shared" ref="A28:A31" si="0">A27+1</f>
+        <f t="shared" ref="A28:A32" si="0">A27+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="78"/>
+      <c r="B28" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>63</v>
+      </c>
       <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="E28" s="20" t="b">
+        <v>0</v>
+      </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="22"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" s="32" customFormat="1">
       <c r="A29" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="119"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>A28+1</f>
+        <v>4</v>
       </c>
       <c r="B30" s="72"/>
       <c r="C30" s="79"/>
@@ -2294,85 +2412,88 @@
     <row r="31" spans="1:11">
       <c r="A31" s="19">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="72"/>
       <c r="C31" s="79"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
+      <c r="A32" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B32" s="72"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="30" t="s">
+    <row r="33" spans="1:11">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="44" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="44"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="47" t="s">
+      <c r="G36" s="44"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B37" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="35"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="51"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
       <c r="K37" s="35"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="51"/>
       <c r="B38" s="46"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="67"/>
       <c r="G38" s="34"/>
       <c r="H38" s="36"/>
@@ -2381,11 +2502,11 @@
       <c r="K38" s="35"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="52"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
       <c r="F39" s="67"/>
       <c r="G39" s="34"/>
       <c r="H39" s="36"/>
@@ -2394,14 +2515,17 @@
       <c r="K39" s="35"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="35"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="13"/>
@@ -2415,9 +2539,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="13"/>
-      <c r="B42" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -2426,75 +2548,71 @@
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A44" s="94" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A45" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B45" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="C45" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="95"/>
-      <c r="E44" s="100" t="s">
+      <c r="D45" s="108"/>
+      <c r="E45" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="103"/>
-      <c r="G44" s="100" t="s">
+      <c r="F45" s="111"/>
+      <c r="G45" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="100"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="94"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="15"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="19">
-        <v>1</v>
-      </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="28"/>
+      <c r="A46" s="104"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="29"/>
       <c r="K46" s="15"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="19">
-        <f>A46+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="70"/>
       <c r="C47" s="86"/>
@@ -2509,27 +2627,27 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="19">
-        <f t="shared" ref="A48:A51" si="1">A47+1</f>
-        <v>3</v>
-      </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="87"/>
+        <f>A47+1</f>
+        <v>2</v>
+      </c>
+      <c r="B48" s="70"/>
+      <c r="C48" s="86"/>
       <c r="D48" s="89"/>
       <c r="E48" s="20"/>
       <c r="F48" s="83"/>
       <c r="G48" s="20"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
-      <c r="J48" s="22"/>
+      <c r="J48" s="28"/>
       <c r="K48" s="15"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="19">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="88"/>
+        <f t="shared" ref="A49:A52" si="1">A48+1</f>
+        <v>3</v>
+      </c>
+      <c r="B49" s="71"/>
+      <c r="C49" s="87"/>
       <c r="D49" s="89"/>
       <c r="E49" s="20"/>
       <c r="F49" s="83"/>
@@ -2542,7 +2660,7 @@
     <row r="50" spans="1:11">
       <c r="A50" s="19">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" s="72"/>
       <c r="C50" s="88"/>
@@ -2558,114 +2676,114 @@
     <row r="51" spans="1:11">
       <c r="A51" s="19">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="72"/>
       <c r="C51" s="88"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="76"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="22"/>
       <c r="K51" s="15"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="27"/>
+      <c r="A52" s="19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B52" s="72"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="76"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13" t="s">
+    <row r="53" spans="1:11">
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="15"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="3" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="15"/>
-    </row>
-    <row r="57" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A57" s="94" t="s">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="15"/>
+    </row>
+    <row r="58" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A58" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="94" t="s">
+      <c r="B58" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="92" t="s">
+      <c r="C58" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="95"/>
-      <c r="E57" s="100" t="s">
+      <c r="D58" s="108"/>
+      <c r="E58" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="103"/>
-      <c r="G57" s="100" t="s">
+      <c r="F58" s="111"/>
+      <c r="G58" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="H57" s="100"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="9"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="94"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="15"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="19">
-        <v>1</v>
-      </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="28"/>
+      <c r="A59" s="104"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="29"/>
       <c r="K59" s="15"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="19">
-        <f>A59+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="70"/>
       <c r="C60" s="86"/>
@@ -2680,27 +2798,27 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="19">
-        <f t="shared" ref="A61:A64" si="2">A60+1</f>
-        <v>3</v>
-      </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="87"/>
+        <f>A60+1</f>
+        <v>2</v>
+      </c>
+      <c r="B61" s="70"/>
+      <c r="C61" s="86"/>
       <c r="D61" s="89"/>
       <c r="E61" s="20"/>
       <c r="F61" s="83"/>
       <c r="G61" s="20"/>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
-      <c r="J61" s="22"/>
+      <c r="J61" s="28"/>
       <c r="K61" s="15"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="19">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B62" s="72"/>
-      <c r="C62" s="88"/>
+        <f t="shared" ref="A62:A65" si="2">A61+1</f>
+        <v>3</v>
+      </c>
+      <c r="B62" s="71"/>
+      <c r="C62" s="87"/>
       <c r="D62" s="89"/>
       <c r="E62" s="20"/>
       <c r="F62" s="83"/>
@@ -2713,7 +2831,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="19">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" s="72"/>
       <c r="C63" s="88"/>
@@ -2729,85 +2847,92 @@
     <row r="64" spans="1:11">
       <c r="A64" s="19">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" s="72"/>
       <c r="C64" s="88"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="76"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="22"/>
       <c r="K64" s="15"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="27"/>
+      <c r="A65" s="19">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B65" s="72"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="76"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="30" t="s">
+    <row r="66" spans="1:11">
+      <c r="A66" s="23"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="15"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="44" t="s">
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G68" s="44"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="47" t="s">
+      <c r="G69" s="44"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B70" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="35"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="51"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="45"/>
       <c r="K70" s="35"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="51"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="41"/>
+      <c r="A71" s="51">
+        <v>1</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="39"/>
       <c r="F71" s="67"/>
       <c r="G71" s="34"/>
       <c r="H71" s="36"/>
@@ -2816,11 +2941,11 @@
       <c r="K71" s="35"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="52"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41"/>
       <c r="F72" s="67"/>
       <c r="G72" s="34"/>
       <c r="H72" s="36"/>
@@ -2829,14 +2954,17 @@
       <c r="K72" s="35"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="35"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="13"/>
@@ -2850,9 +2978,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="13"/>
-      <c r="B75" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
@@ -2861,135 +2987,131 @@
       <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="15"/>
-    </row>
-    <row r="77" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A77" s="101" t="s">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="15"/>
+    </row>
+    <row r="78" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A78" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="101" t="s">
+      <c r="B78" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="92" t="s">
+      <c r="C78" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="103"/>
-      <c r="E77" s="98" t="s">
+      <c r="D78" s="111"/>
+      <c r="E78" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="98" t="s">
+      <c r="F78" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="G77" s="98" t="s">
+      <c r="G78" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="H77" s="92" t="s">
+      <c r="H78" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="I77" s="16"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="9"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="102"/>
-      <c r="B78" s="102"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="104"/>
-      <c r="E78" s="99"/>
-      <c r="F78" s="99"/>
-      <c r="G78" s="99"/>
-      <c r="H78" s="93"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="15"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="19">
-        <v>1</v>
-      </c>
-      <c r="B79" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="D79" s="89"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="112" t="s">
-        <v>59</v>
-      </c>
-      <c r="I79" s="21"/>
-      <c r="J79" s="28"/>
+      <c r="A79" s="115"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="109"/>
+      <c r="D79" s="112"/>
+      <c r="E79" s="106"/>
+      <c r="F79" s="106"/>
+      <c r="G79" s="106"/>
+      <c r="H79" s="109"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="29"/>
       <c r="K79" s="15"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="19">
-        <f>A79+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="70" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C80" s="86" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D80" s="89"/>
       <c r="E80" s="83"/>
       <c r="F80" s="68"/>
       <c r="G80" s="20"/>
-      <c r="H80" s="113"/>
+      <c r="H80" s="92" t="s">
+        <v>59</v>
+      </c>
       <c r="I80" s="21"/>
       <c r="J80" s="28"/>
       <c r="K80" s="15"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="19">
-        <f t="shared" ref="A81:A84" si="3">A80+1</f>
-        <v>3</v>
-      </c>
-      <c r="B81" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="87" t="s">
-        <v>61</v>
+        <f>A80+1</f>
+        <v>2</v>
+      </c>
+      <c r="B81" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="86" t="s">
+        <v>29</v>
       </c>
       <c r="D81" s="89"/>
-      <c r="E81" s="89"/>
+      <c r="E81" s="83"/>
       <c r="F81" s="68"/>
-      <c r="G81" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="113"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="93"/>
       <c r="I81" s="21"/>
-      <c r="J81" s="22"/>
+      <c r="J81" s="28"/>
       <c r="K81" s="15"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="19">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B82" s="72"/>
-      <c r="C82" s="88"/>
+        <f t="shared" ref="A82:A85" si="3">A81+1</f>
+        <v>3</v>
+      </c>
+      <c r="B82" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="87" t="s">
+        <v>61</v>
+      </c>
       <c r="D82" s="89"/>
-      <c r="E82" s="83"/>
+      <c r="E82" s="89"/>
       <c r="F82" s="68"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="113"/>
+      <c r="G82" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="93"/>
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
       <c r="K82" s="15"/>
@@ -2997,7 +3119,7 @@
     <row r="83" spans="1:11">
       <c r="A83" s="19">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" s="72"/>
       <c r="C83" s="88"/>
@@ -3005,7 +3127,7 @@
       <c r="E83" s="83"/>
       <c r="F83" s="68"/>
       <c r="G83" s="20"/>
-      <c r="H83" s="113"/>
+      <c r="H83" s="93"/>
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
       <c r="K83" s="15"/>
@@ -3013,158 +3135,178 @@
     <row r="84" spans="1:11">
       <c r="A84" s="19">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84" s="72"/>
       <c r="C84" s="88"/>
-      <c r="D84" s="90"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="114"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="76"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="93"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="22"/>
       <c r="K84" s="15"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="23"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="115"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="27"/>
+      <c r="A85" s="19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B85" s="72"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="90"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="76"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13" t="s">
+    <row r="86" spans="1:11">
+      <c r="A86" s="23"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="69"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="95"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="15"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="3" t="s">
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="15"/>
-    </row>
-    <row r="90" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A90" s="94" t="s">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="15"/>
+    </row>
+    <row r="91" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A91" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="94" t="s">
+      <c r="B91" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="92" t="s">
+      <c r="C91" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="95"/>
-      <c r="E90" s="97" t="s">
+      <c r="D91" s="108"/>
+      <c r="E91" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="98" t="s">
+      <c r="F91" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="G90" s="98" t="s">
+      <c r="G91" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="H90" s="92" t="s">
+      <c r="H91" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="I90" s="16"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="9"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="94"/>
-      <c r="B91" s="94"/>
-      <c r="C91" s="93"/>
-      <c r="D91" s="96"/>
-      <c r="E91" s="97"/>
-      <c r="F91" s="99"/>
-      <c r="G91" s="99"/>
-      <c r="H91" s="93"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="15"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="9"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="19">
-        <v>1</v>
-      </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="86"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="112"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="28"/>
+      <c r="A92" s="104"/>
+      <c r="B92" s="104"/>
+      <c r="C92" s="109"/>
+      <c r="D92" s="110"/>
+      <c r="E92" s="113"/>
+      <c r="F92" s="106"/>
+      <c r="G92" s="106"/>
+      <c r="H92" s="109"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="29"/>
       <c r="K92" s="15"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="19">
-        <f>A92+1</f>
-        <v>2</v>
-      </c>
-      <c r="B93" s="70"/>
-      <c r="C93" s="86"/>
+        <v>1</v>
+      </c>
+      <c r="B93" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" s="86" t="s">
+        <v>47</v>
+      </c>
       <c r="D93" s="89"/>
       <c r="E93" s="83"/>
       <c r="F93" s="68"/>
       <c r="G93" s="20"/>
-      <c r="H93" s="113"/>
+      <c r="H93" s="92" t="s">
+        <v>66</v>
+      </c>
       <c r="I93" s="21"/>
       <c r="J93" s="28"/>
       <c r="K93" s="15"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="19">
-        <f t="shared" ref="A94:A97" si="4">A93+1</f>
-        <v>3</v>
-      </c>
-      <c r="B94" s="71"/>
-      <c r="C94" s="87"/>
+        <f>A93+1</f>
+        <v>2</v>
+      </c>
+      <c r="B94" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="86" t="s">
+        <v>63</v>
+      </c>
       <c r="D94" s="89"/>
-      <c r="E94" s="89"/>
+      <c r="E94" s="83"/>
       <c r="F94" s="68"/>
       <c r="G94" s="20"/>
-      <c r="H94" s="113"/>
+      <c r="H94" s="93" t="s">
+        <v>68</v>
+      </c>
       <c r="I94" s="21"/>
-      <c r="J94" s="22"/>
+      <c r="J94" s="28"/>
       <c r="K94" s="15"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="19">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="B95" s="72"/>
-      <c r="C95" s="88"/>
+        <f t="shared" ref="A95:A98" si="4">A94+1</f>
+        <v>3</v>
+      </c>
+      <c r="B95" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" s="87" t="s">
+        <v>76</v>
+      </c>
       <c r="D95" s="89"/>
-      <c r="E95" s="83"/>
+      <c r="E95" s="89"/>
       <c r="F95" s="68"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="113"/>
+      <c r="G95" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="93" t="s">
+        <v>79</v>
+      </c>
       <c r="I95" s="21"/>
       <c r="J95" s="22"/>
       <c r="K95" s="15"/>
@@ -3172,7 +3314,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="19">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96" s="72"/>
       <c r="C96" s="88"/>
@@ -3180,7 +3322,7 @@
       <c r="E96" s="83"/>
       <c r="F96" s="68"/>
       <c r="G96" s="20"/>
-      <c r="H96" s="113"/>
+      <c r="H96" s="93"/>
       <c r="I96" s="21"/>
       <c r="J96" s="22"/>
       <c r="K96" s="15"/>
@@ -3188,36 +3330,267 @@
     <row r="97" spans="1:11">
       <c r="A97" s="19">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B97" s="72"/>
       <c r="C97" s="88"/>
-      <c r="D97" s="90"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="73"/>
-      <c r="H97" s="114"/>
-      <c r="I97" s="75"/>
-      <c r="J97" s="76"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="93"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="22"/>
       <c r="K97" s="15"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="23"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="91"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="115"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="27"/>
+      <c r="A98" s="19">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B98" s="72"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="90"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="73"/>
+      <c r="H98" s="94"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="76"/>
       <c r="K98" s="15"/>
     </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="23"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="95"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="15"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="13"/>
+      <c r="B102" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="15"/>
+    </row>
+    <row r="104" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A104" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="108"/>
+      <c r="E104" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="G104" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="I104" s="16"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="104"/>
+      <c r="B105" s="104"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="113"/>
+      <c r="F105" s="106"/>
+      <c r="G105" s="106"/>
+      <c r="H105" s="109"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="15"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="19">
+        <v>1</v>
+      </c>
+      <c r="B106" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D106" s="89"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="I106" s="21"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="15"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="19">
+        <f>A106+1</f>
+        <v>2</v>
+      </c>
+      <c r="B107" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D107" s="89"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="I107" s="21"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="15"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="19">
+        <f t="shared" ref="A108:A111" si="5">A107+1</f>
+        <v>3</v>
+      </c>
+      <c r="B108" s="71"/>
+      <c r="C108" s="87"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="89"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="93"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="15"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="19">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B109" s="72"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="93"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="15"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="19">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B110" s="72"/>
+      <c r="C110" s="88"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="93"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="15"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="19">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B111" s="72"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="90"/>
+      <c r="E111" s="84"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="73"/>
+      <c r="H111" s="94"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="76"/>
+      <c r="K111" s="15"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="23"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="91"/>
+      <c r="E112" s="85"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="95"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="G57:H58"/>
+  <mergeCells count="44">
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G45:H46"/>
+    <mergeCell ref="G58:H59"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C10:E10"/>
@@ -3229,30 +3602,9 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:E46"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
@@ -3262,7 +3614,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{CCFC1331-CEEF-574E-9BCC-37D38F486896}">
       <formula1>adjustFieldName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F32 F92:G98 F79:G85" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F106:G112 F93:G99 F80:G86 F26:F33" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
       <formula1>yesNo</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/stores/PageTransitDataStore.xlsx
+++ b/meta/stores/PageTransitDataStore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-front-core/meta/stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33361686-C7AE-1B4D-A960-F8187F4E9BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712A78FE-BF26-3142-B543-E69502ED5C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11300" yWindow="4460" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VueStore" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
   <si>
     <t>パッケージ</t>
   </si>
@@ -540,25 +540,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>any</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>restoreFlg</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ページリロード時にリストアを試みます</t>
-    <rPh sb="14" eb="15">
-      <t xml:space="preserve">ココロミマス </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>restore</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -570,17 +551,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>flag</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>trueでリストア指示</t>
-    <rPh sb="9" eb="11">
-      <t xml:space="preserve">シジ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>updateLocation</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -636,10 +606,132 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ページ間データのロード時のオプションです</t>
-    <rPh sb="11" eb="12">
-      <t xml:space="preserve">ジノ </t>
-    </rPh>
+    <t>"invalid"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dataStatus</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>遷移先ページに渡すデータの状態です。
+* valid : 有効なデータが存在します&lt;br&gt;
+* invalid : データは存在しないか無効です&lt;br&gt;
+* updated : データが更新されました。restore が完了した場合も含みます。&lt;br&gt;
+* saving : データを sessionStorage に保管中です。&lt;br&gt;
+* saved : データの保管が完了しました。&lt;br&gt;
+* restoring : データを sessionStorage から読込中です。&lt;br&gt;
+* removing : データを削除中です。&lt;br&gt;
+* removed : データの削除が完了しました&lt;br&gt;</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">センイサキページ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ジョウタイデス。 </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ユウコウナ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">ソンザイマス </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">ソンザイ </t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t xml:space="preserve">ムコウ </t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t xml:space="preserve">コウシｎ </t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t xml:space="preserve">カンリョウ </t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t xml:space="preserve">バアイモ </t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t xml:space="preserve">フクミマス。 </t>
+    </rPh>
+    <rPh sb="159" eb="162">
+      <t xml:space="preserve">ホカンチュウ </t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t xml:space="preserve">ホカンガ </t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t xml:space="preserve">カンリョウ </t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t xml:space="preserve">ヨミコミ </t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t xml:space="preserve">チュウ </t>
+    </rPh>
+    <rPh sb="263" eb="265">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="265" eb="266">
+      <t xml:space="preserve">チュウデス </t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="293" eb="295">
+      <t xml:space="preserve">カンリョウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データの削除を試みます</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>setDataStatus</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データをリストアする際のオプションです。</t>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">サイノ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ状態です。</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジョウタイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ状態の更新を試みます。</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジョウタイ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">コウシｎ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ココロミマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PageTransitData</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1320,7 +1412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1485,70 +1577,82 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1960,10 +2064,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2037,10 +2141,10 @@
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="98"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
@@ -2052,10 +2156,10 @@
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="98"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="82" t="s">
         <v>30</v>
       </c>
@@ -2071,11 +2175,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="65"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -2110,10 +2214,10 @@
       <c r="G12"/>
     </row>
     <row r="13" spans="1:11" s="32" customFormat="1">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="103"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="64" t="s">
         <v>14</v>
       </c>
@@ -2174,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -2266,22 +2370,22 @@
       <c r="B24" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="96" t="s">
+      <c r="E24" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="96" t="s">
+      <c r="G24" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="96"/>
+      <c r="H24" s="112"/>
       <c r="I24" s="16"/>
       <c r="J24" s="17"/>
       <c r="K24" s="9"/>
@@ -2289,12 +2393,12 @@
     <row r="25" spans="1:11">
       <c r="A25" s="104"/>
       <c r="B25" s="104"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
       <c r="I25" s="18"/>
       <c r="J25" s="29"/>
       <c r="K25" s="15"/>
@@ -2331,7 +2435,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -2346,73 +2450,74 @@
       <c r="J27" s="28"/>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="150" customHeight="1">
       <c r="A28" s="19">
-        <f t="shared" ref="A28:A32" si="0">A27+1</f>
+        <f t="shared" ref="A28:A33" si="0">A27+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="71" t="s">
-        <v>62</v>
+      <c r="B28" s="78" t="s">
+        <v>74</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20" t="b">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123" t="s">
+        <v>73</v>
       </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
+      <c r="G28" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="122"/>
       <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11" s="32" customFormat="1">
       <c r="A29" s="19">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="119"/>
-    </row>
-    <row r="30" spans="1:11">
+        <v>70</v>
+      </c>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+    </row>
+    <row r="30" spans="1:11" s="32" customFormat="1">
       <c r="A30" s="19">
-        <f>A28+1</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B30" s="72"/>
       <c r="C30" s="79"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="15"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="99"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" s="72"/>
       <c r="C31" s="79"/>
@@ -2428,85 +2533,88 @@
     <row r="32" spans="1:11">
       <c r="A32" s="19">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" s="72"/>
       <c r="C32" s="79"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="15"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27"/>
+      <c r="A33" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B33" s="72"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="30" t="s">
+    <row r="34" spans="1:11">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="44" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="47" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B38" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="35"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="51"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
       <c r="K38" s="35"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="51"/>
       <c r="B39" s="46"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="67"/>
       <c r="G39" s="34"/>
       <c r="H39" s="36"/>
@@ -2515,11 +2623,11 @@
       <c r="K39" s="35"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="52"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="67"/>
       <c r="G40" s="34"/>
       <c r="H40" s="36"/>
@@ -2528,14 +2636,17 @@
       <c r="K40" s="35"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="35"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="13"/>
@@ -2549,9 +2660,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="13"/>
-      <c r="B43" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -2560,75 +2669,71 @@
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A45" s="104" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="15"/>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A46" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="104" t="s">
+      <c r="B46" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="107" t="s">
+      <c r="C46" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="108"/>
-      <c r="E45" s="96" t="s">
+      <c r="D46" s="105"/>
+      <c r="E46" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="111"/>
-      <c r="G45" s="96" t="s">
+      <c r="F46" s="110"/>
+      <c r="G46" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="H45" s="96"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="104"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="15"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="19">
-        <v>1</v>
-      </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="28"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="29"/>
       <c r="K47" s="15"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="19">
-        <f>A47+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="70"/>
       <c r="C48" s="86"/>
@@ -2643,27 +2748,27 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="19">
-        <f t="shared" ref="A49:A52" si="1">A48+1</f>
-        <v>3</v>
-      </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="87"/>
+        <f>A48+1</f>
+        <v>2</v>
+      </c>
+      <c r="B49" s="70"/>
+      <c r="C49" s="86"/>
       <c r="D49" s="89"/>
       <c r="E49" s="20"/>
       <c r="F49" s="83"/>
       <c r="G49" s="20"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
-      <c r="J49" s="22"/>
+      <c r="J49" s="28"/>
       <c r="K49" s="15"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="19">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="88"/>
+        <f t="shared" ref="A50:A53" si="1">A49+1</f>
+        <v>3</v>
+      </c>
+      <c r="B50" s="71"/>
+      <c r="C50" s="87"/>
       <c r="D50" s="89"/>
       <c r="E50" s="20"/>
       <c r="F50" s="83"/>
@@ -2676,7 +2781,7 @@
     <row r="51" spans="1:11">
       <c r="A51" s="19">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="72"/>
       <c r="C51" s="88"/>
@@ -2692,114 +2797,114 @@
     <row r="52" spans="1:11">
       <c r="A52" s="19">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="72"/>
       <c r="C52" s="88"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="76"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="22"/>
       <c r="K52" s="15"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="27"/>
+      <c r="A53" s="19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B53" s="72"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="76"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13" t="s">
+    <row r="54" spans="1:11">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="15"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="3" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="15"/>
-    </row>
-    <row r="58" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A58" s="104" t="s">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="15"/>
+    </row>
+    <row r="59" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A59" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B59" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="107" t="s">
+      <c r="C59" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="108"/>
-      <c r="E58" s="96" t="s">
+      <c r="D59" s="105"/>
+      <c r="E59" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="111"/>
-      <c r="G58" s="96" t="s">
+      <c r="F59" s="110"/>
+      <c r="G59" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="H58" s="96"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="9"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="104"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="96"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="15"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="19">
-        <v>1</v>
-      </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="28"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="29"/>
       <c r="K60" s="15"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="19">
-        <f>A60+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" s="70"/>
       <c r="C61" s="86"/>
@@ -2814,27 +2919,27 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="19">
-        <f t="shared" ref="A62:A65" si="2">A61+1</f>
-        <v>3</v>
-      </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="87"/>
+        <f>A61+1</f>
+        <v>2</v>
+      </c>
+      <c r="B62" s="70"/>
+      <c r="C62" s="86"/>
       <c r="D62" s="89"/>
       <c r="E62" s="20"/>
       <c r="F62" s="83"/>
       <c r="G62" s="20"/>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
-      <c r="J62" s="22"/>
+      <c r="J62" s="28"/>
       <c r="K62" s="15"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="19">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="88"/>
+        <f t="shared" ref="A63:A66" si="2">A62+1</f>
+        <v>3</v>
+      </c>
+      <c r="B63" s="71"/>
+      <c r="C63" s="87"/>
       <c r="D63" s="89"/>
       <c r="E63" s="20"/>
       <c r="F63" s="83"/>
@@ -2847,7 +2952,7 @@
     <row r="64" spans="1:11">
       <c r="A64" s="19">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" s="72"/>
       <c r="C64" s="88"/>
@@ -2863,89 +2968,92 @@
     <row r="65" spans="1:11">
       <c r="A65" s="19">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" s="72"/>
       <c r="C65" s="88"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="76"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="22"/>
       <c r="K65" s="15"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="27"/>
+      <c r="A66" s="19">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B66" s="72"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="76"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="30" t="s">
+    <row r="67" spans="1:11">
+      <c r="A67" s="23"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="15"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="44" t="s">
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G69" s="44"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="47" t="s">
+      <c r="G70" s="44"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B71" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="35"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="51">
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="35"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="51">
         <v>1</v>
       </c>
-      <c r="B71" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="35"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="51"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
+      <c r="B72" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="39"/>
       <c r="F72" s="67"/>
       <c r="G72" s="34"/>
       <c r="H72" s="36"/>
@@ -2954,11 +3062,11 @@
       <c r="K72" s="35"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="52"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="50"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="41"/>
       <c r="F73" s="67"/>
       <c r="G73" s="34"/>
       <c r="H73" s="36"/>
@@ -2967,14 +3075,17 @@
       <c r="K73" s="35"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="35"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="13"/>
@@ -2988,9 +3099,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="13"/>
-      <c r="B76" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -2999,134 +3108,130 @@
       <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="15"/>
-    </row>
-    <row r="78" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A78" s="114" t="s">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="15"/>
+    </row>
+    <row r="79" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A79" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="114" t="s">
+      <c r="B79" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="107" t="s">
+      <c r="C79" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="111"/>
-      <c r="E78" s="105" t="s">
+      <c r="D79" s="110"/>
+      <c r="E79" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F78" s="105" t="s">
+      <c r="F79" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="G78" s="105" t="s">
+      <c r="G79" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="H78" s="107" t="s">
+      <c r="H79" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="9"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="115"/>
-      <c r="B79" s="115"/>
-      <c r="C79" s="109"/>
-      <c r="D79" s="112"/>
-      <c r="E79" s="106"/>
-      <c r="F79" s="106"/>
-      <c r="G79" s="106"/>
-      <c r="H79" s="109"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="15"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="19">
-        <v>1</v>
-      </c>
-      <c r="B80" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" s="89"/>
-      <c r="E80" s="83"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="I80" s="21"/>
-      <c r="J80" s="28"/>
+      <c r="A80" s="109"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="101"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="103"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="29"/>
       <c r="K80" s="15"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="19">
-        <f>A80+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" s="70" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C81" s="86" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D81" s="89"/>
       <c r="E81" s="83"/>
       <c r="F81" s="68"/>
       <c r="G81" s="20"/>
-      <c r="H81" s="93"/>
+      <c r="H81" s="92" t="s">
+        <v>59</v>
+      </c>
       <c r="I81" s="21"/>
       <c r="J81" s="28"/>
       <c r="K81" s="15"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="19">
-        <f t="shared" ref="A82:A85" si="3">A81+1</f>
-        <v>3</v>
-      </c>
-      <c r="B82" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" s="87" t="s">
-        <v>61</v>
+        <f>A81+1</f>
+        <v>2</v>
+      </c>
+      <c r="B82" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="86" t="s">
+        <v>29</v>
       </c>
       <c r="D82" s="89"/>
-      <c r="E82" s="89"/>
+      <c r="E82" s="83"/>
       <c r="F82" s="68"/>
-      <c r="G82" s="20" t="s">
-        <v>14</v>
-      </c>
+      <c r="G82" s="20"/>
       <c r="H82" s="93"/>
       <c r="I82" s="21"/>
-      <c r="J82" s="22"/>
+      <c r="J82" s="28"/>
       <c r="K82" s="15"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="19">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B83" s="72"/>
-      <c r="C83" s="88"/>
+        <f t="shared" ref="A83:A86" si="3">A82+1</f>
+        <v>3</v>
+      </c>
+      <c r="B83" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="87" t="s">
+        <v>82</v>
+      </c>
       <c r="D83" s="89"/>
-      <c r="E83" s="83"/>
+      <c r="E83" s="89"/>
       <c r="F83" s="68"/>
-      <c r="G83" s="20"/>
+      <c r="G83" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="H83" s="93"/>
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
@@ -3135,7 +3240,7 @@
     <row r="84" spans="1:11">
       <c r="A84" s="19">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" s="72"/>
       <c r="C84" s="88"/>
@@ -3151,137 +3256,133 @@
     <row r="85" spans="1:11">
       <c r="A85" s="19">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B85" s="72"/>
       <c r="C85" s="88"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="94"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="76"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="93"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="22"/>
       <c r="K85" s="15"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="23"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="69"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="95"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="27"/>
+      <c r="A86" s="19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B86" s="72"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="90"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="94"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="76"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13" t="s">
+    <row r="87" spans="1:11">
+      <c r="A87" s="23"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="95"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="15"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="3" t="s">
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="15"/>
-    </row>
-    <row r="91" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A91" s="104" t="s">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="15"/>
+    </row>
+    <row r="92" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A92" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="104" t="s">
+      <c r="B92" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="107" t="s">
+      <c r="C92" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="108"/>
-      <c r="E91" s="113" t="s">
+      <c r="D92" s="105"/>
+      <c r="E92" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F91" s="105" t="s">
+      <c r="F92" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="G91" s="105" t="s">
+      <c r="G92" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="H91" s="107" t="s">
+      <c r="H92" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="I91" s="16"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="9"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="104"/>
-      <c r="B92" s="104"/>
-      <c r="C92" s="109"/>
-      <c r="D92" s="110"/>
-      <c r="E92" s="113"/>
-      <c r="F92" s="106"/>
-      <c r="G92" s="106"/>
-      <c r="H92" s="109"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="15"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="9"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="19">
-        <v>1</v>
-      </c>
-      <c r="B93" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="D93" s="89"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="I93" s="21"/>
-      <c r="J93" s="28"/>
+      <c r="A93" s="104"/>
+      <c r="B93" s="104"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="106"/>
+      <c r="E93" s="107"/>
+      <c r="F93" s="101"/>
+      <c r="G93" s="101"/>
+      <c r="H93" s="103"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="29"/>
       <c r="K93" s="15"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="19">
-        <f>A93+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" s="70" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C94" s="86" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D94" s="89"/>
       <c r="E94" s="83"/>
-      <c r="F94" s="68"/>
+      <c r="F94" s="68" t="s">
+        <v>14</v>
+      </c>
       <c r="G94" s="20"/>
-      <c r="H94" s="93" t="s">
-        <v>68</v>
+      <c r="H94" s="92" t="s">
+        <v>62</v>
       </c>
       <c r="I94" s="21"/>
       <c r="J94" s="28"/>
@@ -3289,37 +3390,35 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="19">
-        <f t="shared" ref="A95:A98" si="4">A94+1</f>
-        <v>3</v>
+        <f>A94+1</f>
+        <v>2</v>
       </c>
       <c r="B95" s="71" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C95" s="87" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D95" s="89"/>
-      <c r="E95" s="89"/>
+      <c r="E95" s="83"/>
       <c r="F95" s="68"/>
-      <c r="G95" s="20" t="s">
-        <v>14</v>
-      </c>
+      <c r="G95" s="20"/>
       <c r="H95" s="93" t="s">
         <v>79</v>
       </c>
       <c r="I95" s="21"/>
-      <c r="J95" s="22"/>
+      <c r="J95" s="28"/>
       <c r="K95" s="15"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="19">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="B96" s="72"/>
-      <c r="C96" s="88"/>
+        <f t="shared" ref="A96:A99" si="4">A95+1</f>
+        <v>3</v>
+      </c>
+      <c r="B96" s="71"/>
+      <c r="C96" s="87"/>
       <c r="D96" s="89"/>
-      <c r="E96" s="83"/>
+      <c r="E96" s="89"/>
       <c r="F96" s="68"/>
       <c r="G96" s="20"/>
       <c r="H96" s="93"/>
@@ -3330,7 +3429,7 @@
     <row r="97" spans="1:11">
       <c r="A97" s="19">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" s="72"/>
       <c r="C97" s="88"/>
@@ -3346,137 +3445,131 @@
     <row r="98" spans="1:11">
       <c r="A98" s="19">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B98" s="72"/>
       <c r="C98" s="88"/>
-      <c r="D98" s="90"/>
-      <c r="E98" s="84"/>
-      <c r="F98" s="74"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="94"/>
-      <c r="I98" s="75"/>
-      <c r="J98" s="76"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="93"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="22"/>
       <c r="K98" s="15"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="23"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="91"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="95"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="27"/>
+      <c r="A99" s="19">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B99" s="72"/>
+      <c r="C99" s="88"/>
+      <c r="D99" s="90"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="94"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="76"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13" t="s">
+    <row r="100" spans="1:11">
+      <c r="A100" s="23"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="69"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="95"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="15"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="3" t="s">
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="15"/>
-    </row>
-    <row r="104" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A104" s="104" t="s">
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="15"/>
+    </row>
+    <row r="105" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A105" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B104" s="104" t="s">
+      <c r="B105" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="107" t="s">
+      <c r="C105" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D104" s="108"/>
-      <c r="E104" s="113" t="s">
+      <c r="D105" s="105"/>
+      <c r="E105" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F104" s="105" t="s">
+      <c r="F105" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="G104" s="105" t="s">
+      <c r="G105" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="H104" s="107" t="s">
+      <c r="H105" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="I104" s="16"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="9"/>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="104"/>
-      <c r="B105" s="104"/>
-      <c r="C105" s="109"/>
-      <c r="D105" s="110"/>
-      <c r="E105" s="113"/>
-      <c r="F105" s="106"/>
-      <c r="G105" s="106"/>
-      <c r="H105" s="109"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="15"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="19">
-        <v>1</v>
-      </c>
-      <c r="B106" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C106" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="D106" s="89"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="68"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="I106" s="21"/>
-      <c r="J106" s="28"/>
+      <c r="A106" s="104"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="106"/>
+      <c r="E106" s="107"/>
+      <c r="F106" s="101"/>
+      <c r="G106" s="101"/>
+      <c r="H106" s="103"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="29"/>
       <c r="K106" s="15"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="19">
-        <f>A106+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107" s="70" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C107" s="86" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D107" s="89"/>
       <c r="E107" s="83"/>
       <c r="F107" s="68"/>
       <c r="G107" s="20"/>
-      <c r="H107" s="93" t="s">
-        <v>71</v>
+      <c r="H107" s="92" t="s">
+        <v>66</v>
       </c>
       <c r="I107" s="21"/>
       <c r="J107" s="28"/>
@@ -3484,29 +3577,37 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="19">
-        <f t="shared" ref="A108:A111" si="5">A107+1</f>
-        <v>3</v>
-      </c>
-      <c r="B108" s="71"/>
-      <c r="C108" s="87"/>
+        <f>A107+1</f>
+        <v>2</v>
+      </c>
+      <c r="B108" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="86" t="s">
+        <v>82</v>
+      </c>
       <c r="D108" s="89"/>
-      <c r="E108" s="89"/>
+      <c r="E108" s="83"/>
       <c r="F108" s="68"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="93"/>
+      <c r="G108" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="93" t="s">
+        <v>65</v>
+      </c>
       <c r="I108" s="21"/>
-      <c r="J108" s="22"/>
+      <c r="J108" s="28"/>
       <c r="K108" s="15"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="19">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B109" s="72"/>
-      <c r="C109" s="88"/>
+        <f t="shared" ref="A109:A112" si="5">A108+1</f>
+        <v>3</v>
+      </c>
+      <c r="B109" s="71"/>
+      <c r="C109" s="87"/>
       <c r="D109" s="89"/>
-      <c r="E109" s="83"/>
+      <c r="E109" s="89"/>
       <c r="F109" s="68"/>
       <c r="G109" s="20"/>
       <c r="H109" s="93"/>
@@ -3517,7 +3618,7 @@
     <row r="110" spans="1:11">
       <c r="A110" s="19">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B110" s="72"/>
       <c r="C110" s="88"/>
@@ -3533,64 +3634,437 @@
     <row r="111" spans="1:11">
       <c r="A111" s="19">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B111" s="72"/>
       <c r="C111" s="88"/>
-      <c r="D111" s="90"/>
-      <c r="E111" s="84"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="73"/>
-      <c r="H111" s="94"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="76"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="83"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="93"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="22"/>
       <c r="K111" s="15"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="23"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="91"/>
-      <c r="E112" s="85"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="95"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="27"/>
+      <c r="A112" s="19">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B112" s="72"/>
+      <c r="C112" s="88"/>
+      <c r="D112" s="90"/>
+      <c r="E112" s="84"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="73"/>
+      <c r="H112" s="94"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="76"/>
       <c r="K112" s="15"/>
     </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="23"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="91"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="95"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="15"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="15"/>
+    </row>
+    <row r="118" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A118" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="105"/>
+      <c r="E118" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="G118" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="H118" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="I118" s="16"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="9"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="104"/>
+      <c r="B119" s="104"/>
+      <c r="C119" s="103"/>
+      <c r="D119" s="106"/>
+      <c r="E119" s="107"/>
+      <c r="F119" s="101"/>
+      <c r="G119" s="101"/>
+      <c r="H119" s="103"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="15"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="19">
+        <v>1</v>
+      </c>
+      <c r="B120" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D120" s="89"/>
+      <c r="E120" s="83"/>
+      <c r="F120" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="20"/>
+      <c r="H120" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="I120" s="21"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="15"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="19">
+        <f>A120+1</f>
+        <v>2</v>
+      </c>
+      <c r="B121" s="70"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="89"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="93"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="15"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="19">
+        <f t="shared" ref="A122:A125" si="6">A121+1</f>
+        <v>3</v>
+      </c>
+      <c r="B122" s="71"/>
+      <c r="C122" s="87"/>
+      <c r="D122" s="89"/>
+      <c r="E122" s="89"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="93"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="15"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="19">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B123" s="72"/>
+      <c r="C123" s="88"/>
+      <c r="D123" s="89"/>
+      <c r="E123" s="83"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="93"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="15"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="19">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B124" s="72"/>
+      <c r="C124" s="88"/>
+      <c r="D124" s="89"/>
+      <c r="E124" s="83"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="93"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="15"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="19">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B125" s="72"/>
+      <c r="C125" s="88"/>
+      <c r="D125" s="90"/>
+      <c r="E125" s="84"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="73"/>
+      <c r="H125" s="94"/>
+      <c r="I125" s="75"/>
+      <c r="J125" s="76"/>
+      <c r="K125" s="15"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="23"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="91"/>
+      <c r="E126" s="85"/>
+      <c r="F126" s="69"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="95"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="15"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="13"/>
+      <c r="B129" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="15"/>
+    </row>
+    <row r="131" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A131" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" s="105"/>
+      <c r="E131" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="G131" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="H131" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="I131" s="16"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="9"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="104"/>
+      <c r="B132" s="104"/>
+      <c r="C132" s="103"/>
+      <c r="D132" s="106"/>
+      <c r="E132" s="107"/>
+      <c r="F132" s="101"/>
+      <c r="G132" s="101"/>
+      <c r="H132" s="103"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="15"/>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="19">
+        <v>1</v>
+      </c>
+      <c r="B133" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D133" s="89"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="I133" s="21"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="15"/>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="19">
+        <f>A133+1</f>
+        <v>2</v>
+      </c>
+      <c r="B134" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C134" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134" s="89"/>
+      <c r="E134" s="83"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="I134" s="21"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="15"/>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="19">
+        <f t="shared" ref="A135:A138" si="7">A134+1</f>
+        <v>3</v>
+      </c>
+      <c r="B135" s="71"/>
+      <c r="C135" s="87"/>
+      <c r="D135" s="89"/>
+      <c r="E135" s="89"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="93"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="22"/>
+      <c r="K135" s="15"/>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="19">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B136" s="72"/>
+      <c r="C136" s="88"/>
+      <c r="D136" s="89"/>
+      <c r="E136" s="83"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="93"/>
+      <c r="I136" s="21"/>
+      <c r="J136" s="22"/>
+      <c r="K136" s="15"/>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="19">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B137" s="72"/>
+      <c r="C137" s="88"/>
+      <c r="D137" s="89"/>
+      <c r="E137" s="83"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="93"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="22"/>
+      <c r="K137" s="15"/>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="19">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B138" s="72"/>
+      <c r="C138" s="88"/>
+      <c r="D138" s="90"/>
+      <c r="E138" s="84"/>
+      <c r="F138" s="74"/>
+      <c r="G138" s="73"/>
+      <c r="H138" s="94"/>
+      <c r="I138" s="75"/>
+      <c r="J138" s="76"/>
+      <c r="K138" s="15"/>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="91"/>
+      <c r="E139" s="85"/>
+      <c r="F139" s="69"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="95"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G45:H46"/>
-    <mergeCell ref="G58:H59"/>
+  <mergeCells count="59">
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="G59:H60"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C10:E10"/>
@@ -3602,9 +4076,37 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
@@ -3614,7 +4116,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{CCFC1331-CEEF-574E-9BCC-37D38F486896}">
       <formula1>adjustFieldName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F106:G112 F93:G99 F80:G86 F26:F33" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F107:G113 F94:G100 F81:G87 F133:G139 F120:G126 F26:F34" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
       <formula1>yesNo</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/stores/PageTransitDataStore.xlsx
+++ b/meta/stores/PageTransitDataStore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-front-core/meta/stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712A78FE-BF26-3142-B543-E69502ED5C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36687C4-6805-6F45-8D69-69F9B147709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11300" yWindow="4460" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,6 +37,7 @@
     <definedName name="必須">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
   <si>
     <t>パッケージ</t>
   </si>
@@ -732,6 +733,52 @@
   </si>
   <si>
     <t>PageTransitData</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dataIssuer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"default"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>restore, saveなどの更新操作を行ったコンポーネントのId</t>
+    <rPh sb="16" eb="20">
+      <t xml:space="preserve">コウシンソウサ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">オコナッタ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>issuer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新を発行したコンポーネントです</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ハッコウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>setIssuer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>issuerの値を変更します。</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">アタイヲ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヘンコウシマｓ。 </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -823,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1407,12 +1454,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1581,6 +1680,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1605,54 +1707,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2064,10 +2174,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2364,10 +2474,10 @@
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="105" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="112" t="s">
@@ -2379,7 +2489,7 @@
       <c r="E24" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="101" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="112" t="s">
@@ -2391,12 +2501,12 @@
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="112"/>
       <c r="D25" s="112"/>
       <c r="E25" s="112"/>
-      <c r="F25" s="101"/>
+      <c r="F25" s="102"/>
       <c r="G25" s="112"/>
       <c r="H25" s="112"/>
       <c r="I25" s="18"/>
@@ -2461,17 +2571,17 @@
       <c r="C28" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123" t="s">
+      <c r="D28" s="100"/>
+      <c r="E28" s="100" t="s">
         <v>73</v>
       </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="120" t="s">
+      <c r="G28" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="122"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="111"/>
       <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11" s="32" customFormat="1">
@@ -2503,12 +2613,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="79"/>
+      <c r="B30" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>29</v>
+      </c>
       <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
+      <c r="E30" s="96" t="s">
+        <v>84</v>
+      </c>
       <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
+      <c r="G30" s="96" t="s">
+        <v>85</v>
+      </c>
       <c r="H30" s="97"/>
       <c r="I30" s="97"/>
       <c r="J30" s="98"/>
@@ -2696,20 +2814,20 @@
       <c r="K45" s="15"/>
     </row>
     <row r="46" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="105"/>
+      <c r="D46" s="106"/>
       <c r="E46" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="110"/>
+      <c r="F46" s="120"/>
       <c r="G46" s="112" t="s">
         <v>1</v>
       </c>
@@ -2719,12 +2837,12 @@
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="104"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="106"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="107"/>
       <c r="E47" s="112"/>
-      <c r="F47" s="111"/>
+      <c r="F47" s="121"/>
       <c r="G47" s="112"/>
       <c r="H47" s="112"/>
       <c r="I47" s="18"/>
@@ -2867,20 +2985,20 @@
       <c r="K58" s="15"/>
     </row>
     <row r="59" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A59" s="104" t="s">
+      <c r="A59" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="104" t="s">
+      <c r="B59" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="102" t="s">
+      <c r="C59" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="105"/>
+      <c r="D59" s="106"/>
       <c r="E59" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="110"/>
+      <c r="F59" s="120"/>
       <c r="G59" s="112" t="s">
         <v>1</v>
       </c>
@@ -2890,12 +3008,12 @@
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="104"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="106"/>
+      <c r="A60" s="105"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="107"/>
       <c r="E60" s="112"/>
-      <c r="F60" s="111"/>
+      <c r="F60" s="121"/>
       <c r="G60" s="112"/>
       <c r="H60" s="112"/>
       <c r="I60" s="18"/>
@@ -3135,26 +3253,26 @@
       <c r="K78" s="15"/>
     </row>
     <row r="79" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A79" s="108" t="s">
+      <c r="A79" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="108" t="s">
+      <c r="B79" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="102" t="s">
+      <c r="C79" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="110"/>
-      <c r="E79" s="100" t="s">
+      <c r="D79" s="120"/>
+      <c r="E79" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="100" t="s">
+      <c r="F79" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="G79" s="100" t="s">
+      <c r="G79" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="H79" s="102" t="s">
+      <c r="H79" s="103" t="s">
         <v>1</v>
       </c>
       <c r="I79" s="16"/>
@@ -3162,14 +3280,14 @@
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="109"/>
-      <c r="B80" s="109"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
-      <c r="H80" s="103"/>
+      <c r="A80" s="123"/>
+      <c r="B80" s="123"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="121"/>
+      <c r="E80" s="102"/>
+      <c r="F80" s="102"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="104"/>
       <c r="I80" s="18"/>
       <c r="J80" s="29"/>
       <c r="K80" s="15"/>
@@ -3220,13 +3338,13 @@
         <f t="shared" ref="A83:A86" si="3">A82+1</f>
         <v>3</v>
       </c>
-      <c r="B83" s="71" t="s">
+      <c r="B83" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="C83" s="87" t="s">
+      <c r="C83" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="89"/>
+      <c r="D83" s="90"/>
       <c r="E83" s="89"/>
       <c r="F83" s="68"/>
       <c r="G83" s="20" t="s">
@@ -3242,14 +3360,22 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B84" s="72"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="83"/>
+      <c r="B84" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="132"/>
+      <c r="E84" s="124"/>
       <c r="F84" s="68"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="93"/>
-      <c r="I84" s="21"/>
+      <c r="G84" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="I84" s="127"/>
       <c r="J84" s="22"/>
       <c r="K84" s="15"/>
     </row>
@@ -3258,9 +3384,9 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B85" s="72"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="89"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="87"/>
+      <c r="D85" s="129"/>
       <c r="E85" s="83"/>
       <c r="F85" s="68"/>
       <c r="G85" s="20"/>
@@ -3326,26 +3452,26 @@
       <c r="K91" s="15"/>
     </row>
     <row r="92" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A92" s="104" t="s">
+      <c r="A92" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="104" t="s">
+      <c r="B92" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="102" t="s">
+      <c r="C92" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="105"/>
-      <c r="E92" s="107" t="s">
+      <c r="D92" s="106"/>
+      <c r="E92" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="F92" s="100" t="s">
+      <c r="F92" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="G92" s="100" t="s">
+      <c r="G92" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="H92" s="102" t="s">
+      <c r="H92" s="103" t="s">
         <v>1</v>
       </c>
       <c r="I92" s="16"/>
@@ -3353,14 +3479,14 @@
       <c r="K92" s="9"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="104"/>
-      <c r="B93" s="104"/>
-      <c r="C93" s="103"/>
-      <c r="D93" s="106"/>
-      <c r="E93" s="107"/>
-      <c r="F93" s="101"/>
-      <c r="G93" s="101"/>
-      <c r="H93" s="103"/>
+      <c r="A93" s="105"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="107"/>
+      <c r="E93" s="108"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="102"/>
+      <c r="H93" s="104"/>
       <c r="I93" s="18"/>
       <c r="J93" s="29"/>
       <c r="K93" s="15"/>
@@ -3431,13 +3557,19 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B97" s="72"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="89"/>
-      <c r="E97" s="83"/>
+      <c r="B97" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" s="132"/>
+      <c r="E97" s="124"/>
       <c r="F97" s="68"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="93"/>
+      <c r="G97" s="125"/>
+      <c r="H97" s="126" t="s">
+        <v>87</v>
+      </c>
       <c r="I97" s="21"/>
       <c r="J97" s="22"/>
       <c r="K97" s="15"/>
@@ -3515,26 +3647,26 @@
       <c r="K104" s="15"/>
     </row>
     <row r="105" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A105" s="104" t="s">
+      <c r="A105" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="104" t="s">
+      <c r="B105" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="102" t="s">
+      <c r="C105" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="105"/>
-      <c r="E105" s="107" t="s">
+      <c r="D105" s="106"/>
+      <c r="E105" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="F105" s="100" t="s">
+      <c r="F105" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="G105" s="100" t="s">
+      <c r="G105" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="H105" s="102" t="s">
+      <c r="H105" s="103" t="s">
         <v>1</v>
       </c>
       <c r="I105" s="16"/>
@@ -3542,14 +3674,14 @@
       <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="104"/>
-      <c r="B106" s="104"/>
-      <c r="C106" s="103"/>
-      <c r="D106" s="106"/>
-      <c r="E106" s="107"/>
-      <c r="F106" s="101"/>
-      <c r="G106" s="101"/>
-      <c r="H106" s="103"/>
+      <c r="A106" s="105"/>
+      <c r="B106" s="105"/>
+      <c r="C106" s="104"/>
+      <c r="D106" s="107"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="102"/>
+      <c r="G106" s="102"/>
+      <c r="H106" s="104"/>
       <c r="I106" s="18"/>
       <c r="J106" s="29"/>
       <c r="K106" s="15"/>
@@ -3604,13 +3736,21 @@
         <f t="shared" ref="A109:A112" si="5">A108+1</f>
         <v>3</v>
       </c>
-      <c r="B109" s="71"/>
-      <c r="C109" s="87"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="89"/>
+      <c r="B109" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="132"/>
+      <c r="E109" s="124"/>
       <c r="F109" s="68"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="93"/>
+      <c r="G109" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="126" t="s">
+        <v>87</v>
+      </c>
       <c r="I109" s="21"/>
       <c r="J109" s="22"/>
       <c r="K109" s="15"/>
@@ -3704,26 +3844,26 @@
       <c r="K117" s="15"/>
     </row>
     <row r="118" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A118" s="104" t="s">
+      <c r="A118" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="104" t="s">
+      <c r="B118" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="102" t="s">
+      <c r="C118" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D118" s="105"/>
-      <c r="E118" s="107" t="s">
+      <c r="D118" s="106"/>
+      <c r="E118" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="F118" s="100" t="s">
+      <c r="F118" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="G118" s="100" t="s">
+      <c r="G118" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="H118" s="102" t="s">
+      <c r="H118" s="103" t="s">
         <v>1</v>
       </c>
       <c r="I118" s="16"/>
@@ -3731,14 +3871,14 @@
       <c r="K118" s="9"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="104"/>
-      <c r="B119" s="104"/>
-      <c r="C119" s="103"/>
-      <c r="D119" s="106"/>
-      <c r="E119" s="107"/>
-      <c r="F119" s="101"/>
-      <c r="G119" s="101"/>
-      <c r="H119" s="103"/>
+      <c r="A119" s="105"/>
+      <c r="B119" s="105"/>
+      <c r="C119" s="104"/>
+      <c r="D119" s="107"/>
+      <c r="E119" s="108"/>
+      <c r="F119" s="102"/>
+      <c r="G119" s="102"/>
+      <c r="H119" s="104"/>
       <c r="I119" s="18"/>
       <c r="J119" s="29"/>
       <c r="K119" s="15"/>
@@ -3771,13 +3911,19 @@
         <f>A120+1</f>
         <v>2</v>
       </c>
-      <c r="B121" s="70"/>
-      <c r="C121" s="86"/>
-      <c r="D121" s="89"/>
-      <c r="E121" s="83"/>
+      <c r="B121" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" s="132"/>
+      <c r="E121" s="124"/>
       <c r="F121" s="68"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="93"/>
+      <c r="G121" s="125"/>
+      <c r="H121" s="126" t="s">
+        <v>87</v>
+      </c>
       <c r="I121" s="21"/>
       <c r="J121" s="28"/>
       <c r="K121" s="15"/>
@@ -3887,26 +4033,26 @@
       <c r="K130" s="15"/>
     </row>
     <row r="131" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A131" s="104" t="s">
+      <c r="A131" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B131" s="104" t="s">
+      <c r="B131" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="102" t="s">
+      <c r="C131" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D131" s="105"/>
-      <c r="E131" s="107" t="s">
+      <c r="D131" s="106"/>
+      <c r="E131" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="F131" s="100" t="s">
+      <c r="F131" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="G131" s="100" t="s">
+      <c r="G131" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="H131" s="102" t="s">
+      <c r="H131" s="103" t="s">
         <v>1</v>
       </c>
       <c r="I131" s="16"/>
@@ -3914,14 +4060,14 @@
       <c r="K131" s="9"/>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="104"/>
-      <c r="B132" s="104"/>
-      <c r="C132" s="103"/>
-      <c r="D132" s="106"/>
-      <c r="E132" s="107"/>
-      <c r="F132" s="101"/>
-      <c r="G132" s="101"/>
-      <c r="H132" s="103"/>
+      <c r="A132" s="105"/>
+      <c r="B132" s="105"/>
+      <c r="C132" s="104"/>
+      <c r="D132" s="107"/>
+      <c r="E132" s="108"/>
+      <c r="F132" s="102"/>
+      <c r="G132" s="102"/>
+      <c r="H132" s="104"/>
       <c r="I132" s="18"/>
       <c r="J132" s="29"/>
       <c r="K132" s="15"/>
@@ -3974,13 +4120,19 @@
         <f t="shared" ref="A135:A138" si="7">A134+1</f>
         <v>3</v>
       </c>
-      <c r="B135" s="71"/>
-      <c r="C135" s="87"/>
-      <c r="D135" s="89"/>
-      <c r="E135" s="89"/>
+      <c r="B135" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C135" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" s="132"/>
+      <c r="E135" s="124"/>
       <c r="F135" s="68"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="93"/>
+      <c r="G135" s="125"/>
+      <c r="H135" s="126" t="s">
+        <v>87</v>
+      </c>
       <c r="I135" s="21"/>
       <c r="J135" s="22"/>
       <c r="K135" s="15"/>
@@ -4046,51 +4198,202 @@
       <c r="J139" s="27"/>
       <c r="K139" s="15"/>
     </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="13"/>
+      <c r="B142" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="15"/>
+    </row>
+    <row r="144" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A144" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="106"/>
+      <c r="E144" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="G144" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="H144" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="I144" s="16"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="9"/>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="105"/>
+      <c r="B145" s="105"/>
+      <c r="C145" s="104"/>
+      <c r="D145" s="107"/>
+      <c r="E145" s="108"/>
+      <c r="F145" s="102"/>
+      <c r="G145" s="102"/>
+      <c r="H145" s="104"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="29"/>
+      <c r="K145" s="15"/>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="19">
+        <v>1</v>
+      </c>
+      <c r="B146" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C146" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D146" s="89"/>
+      <c r="E146" s="83"/>
+      <c r="F146" s="68"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="I146" s="21"/>
+      <c r="J146" s="28"/>
+      <c r="K146" s="15"/>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="19">
+        <f>A146+1</f>
+        <v>2</v>
+      </c>
+      <c r="B147" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C147" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" s="132"/>
+      <c r="E147" s="124"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="125"/>
+      <c r="H147" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="I147" s="21"/>
+      <c r="J147" s="28"/>
+      <c r="K147" s="15"/>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="19">
+        <f t="shared" ref="A148:A151" si="8">A147+1</f>
+        <v>3</v>
+      </c>
+      <c r="B148" s="130"/>
+      <c r="C148" s="131"/>
+      <c r="D148" s="132"/>
+      <c r="E148" s="124"/>
+      <c r="F148" s="68"/>
+      <c r="G148" s="125"/>
+      <c r="H148" s="126"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="22"/>
+      <c r="K148" s="15"/>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="19">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B149" s="72"/>
+      <c r="C149" s="88"/>
+      <c r="D149" s="89"/>
+      <c r="E149" s="83"/>
+      <c r="F149" s="68"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="93"/>
+      <c r="I149" s="21"/>
+      <c r="J149" s="22"/>
+      <c r="K149" s="15"/>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="19">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B150" s="72"/>
+      <c r="C150" s="88"/>
+      <c r="D150" s="89"/>
+      <c r="E150" s="83"/>
+      <c r="F150" s="68"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="93"/>
+      <c r="I150" s="21"/>
+      <c r="J150" s="22"/>
+      <c r="K150" s="15"/>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="19">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B151" s="72"/>
+      <c r="C151" s="88"/>
+      <c r="D151" s="90"/>
+      <c r="E151" s="84"/>
+      <c r="F151" s="74"/>
+      <c r="G151" s="73"/>
+      <c r="H151" s="94"/>
+      <c r="I151" s="75"/>
+      <c r="J151" s="76"/>
+      <c r="K151" s="15"/>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="23"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="91"/>
+      <c r="E152" s="85"/>
+      <c r="F152" s="69"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="95"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="27"/>
+      <c r="K152" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="G59:H60"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
+  <mergeCells count="66">
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
     <mergeCell ref="G79:G80"/>
     <mergeCell ref="H79:H80"/>
     <mergeCell ref="G92:G93"/>
@@ -4107,6 +4410,49 @@
     <mergeCell ref="C79:D80"/>
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="F79:F80"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="G59:H60"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
@@ -4116,7 +4462,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{CCFC1331-CEEF-574E-9BCC-37D38F486896}">
       <formula1>adjustFieldName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F107:G113 F94:G100 F81:G87 F133:G139 F120:G126 F26:F34" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F94:G100 F81:G87 F26:F34 F120:G126 F107:G113 F133:G139 F146:G152" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
       <formula1>yesNo</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/stores/PageTransitDataStore.xlsx
+++ b/meta/stores/PageTransitDataStore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-front-core/meta/stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36687C4-6805-6F45-8D69-69F9B147709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698AAE3D-BA42-6D43-A956-4DFC0467F430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11300" yWindow="4460" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,6 @@
     <definedName name="必須">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="94">
   <si>
     <t>パッケージ</t>
   </si>
@@ -778,6 +777,31 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t xml:space="preserve">ヘンコウシマｓ。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>queryAndHash</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RouteQueryAndHash</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>import { RouteQueryAndHash } from "vue-router"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>遷移先ページのURLに付加するqueryとhash情報です。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">センイサキ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">フカ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ジョウホウ </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1511,27 +1535,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,38 +1563,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1583,8 +1599,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1617,17 +1633,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1637,12 +1652,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1656,113 +1671,105 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2174,10 +2181,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2192,7 +2199,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19">
+    <row r="1" spans="1:10" ht="19">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -2200,17 +2207,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -2218,9 +2225,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="34"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -2230,12 +2236,11 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2243,59 +2248,53 @@
       <c r="C7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="113" t="s">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="114"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="113" t="s">
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="82" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" spans="1:11" ht="45" customHeight="1">
+    </row>
+    <row r="10" spans="1:10" ht="45" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -2305,17 +2304,13 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" s="32" customFormat="1">
-      <c r="A12" s="62" t="s">
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D12"/>
@@ -2323,12 +2318,12 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:11" s="32" customFormat="1">
-      <c r="A13" s="118" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="112"/>
+      <c r="C13" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
@@ -2338,2121 +2333,2134 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:11" s="37" customFormat="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="30" t="s">
+    <row r="14" spans="1:10">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="44" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="47" t="s">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="51">
+      <c r="A17" s="43">
         <v>1</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="35"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="58"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="51"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="35"/>
+      <c r="A18" s="43">
+        <v>2</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="58"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="35"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="58"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="58"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23"/>
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3" t="s">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A24" s="105" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A25" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B25" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C25" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="112" t="s">
+      <c r="D25" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="112" t="s">
+      <c r="E25" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="101" t="s">
+      <c r="F25" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="112" t="s">
+      <c r="G25" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="15"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="19">
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="18">
         <v>1</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B27" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C27" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20" t="s">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="19">
-        <f>A26+1</f>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="18">
+        <f>A27+1</f>
         <v>2</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B28" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C28" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G28" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:11" ht="150" customHeight="1">
-      <c r="A28" s="19">
-        <f t="shared" ref="A28:A33" si="0">A27+1</f>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" ht="150" customHeight="1">
+      <c r="A29" s="18">
+        <f t="shared" ref="A29:A34" si="0">A28+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B29" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C29" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100" t="s">
+      <c r="D29" s="87"/>
+      <c r="E29" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="109" t="s">
+      <c r="F29" s="19"/>
+      <c r="G29" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="29" spans="1:11" s="32" customFormat="1">
-      <c r="A29" s="19">
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B30" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C30" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96" t="s">
+      <c r="D30" s="64"/>
+      <c r="E30" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96" t="s">
+      <c r="F30" s="64"/>
+      <c r="G30" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="99"/>
-    </row>
-    <row r="30" spans="1:11" s="32" customFormat="1">
-      <c r="A30" s="19">
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B31" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C31" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96" t="s">
+      <c r="D31" s="64"/>
+      <c r="E31" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="99"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="19">
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="19">
+      <c r="B32" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="15"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="19">
+      <c r="B33" s="63"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="15"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="30" t="s">
+      <c r="B34" s="63"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="44" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="47" t="s">
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B39" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="35"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="51"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="51"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="35"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="58"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="52"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="35"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="58"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="58"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45"/>
+      <c r="B45" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="3" t="s">
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A46" s="105" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A47" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="105" t="s">
+      <c r="B47" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="103" t="s">
+      <c r="C47" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="106"/>
-      <c r="E46" s="112" t="s">
+      <c r="D47" s="98"/>
+      <c r="E47" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="120"/>
-      <c r="G46" s="112" t="s">
+      <c r="F47" s="103"/>
+      <c r="G47" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="105"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="15"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="19">
+      <c r="A48" s="97"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="18">
         <v>1</v>
       </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="15"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="19">
-        <f>A48+1</f>
+      <c r="B49" s="61"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="18">
+        <f>A49+1</f>
         <v>2</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="19">
-        <f t="shared" ref="A50:A53" si="1">A49+1</f>
+      <c r="B50" s="61"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="18">
+        <f t="shared" ref="A51:A54" si="1">A50+1</f>
         <v>3</v>
       </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="15"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="19">
+      <c r="B51" s="62"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="15"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="19">
+      <c r="B52" s="63"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="15"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="19">
+      <c r="B53" s="63"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="15"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="15"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13" t="s">
+      <c r="B54" s="63"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="14"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58"/>
+      <c r="B58" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="3" t="s">
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="15"/>
-    </row>
-    <row r="59" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A59" s="105" t="s">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A60" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="105" t="s">
+      <c r="B60" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="103" t="s">
+      <c r="C60" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="106"/>
-      <c r="E59" s="112" t="s">
+      <c r="D60" s="98"/>
+      <c r="E60" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="120"/>
-      <c r="G59" s="112" t="s">
+      <c r="F60" s="103"/>
+      <c r="G60" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="H59" s="112"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="9"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="105"/>
-      <c r="B60" s="105"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="121"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="15"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="19">
+      <c r="A61" s="97"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="18">
         <v>1</v>
       </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="15"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="19">
-        <f>A61+1</f>
+      <c r="B62" s="61"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="14"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="18">
+        <f>A62+1</f>
         <v>2</v>
       </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="15"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="19">
-        <f t="shared" ref="A63:A66" si="2">A62+1</f>
+      <c r="B63" s="61"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="18">
+        <f t="shared" ref="A64:A67" si="2">A63+1</f>
         <v>3</v>
       </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="15"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="19">
+      <c r="B64" s="62"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="18">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="15"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="19">
+      <c r="B65" s="63"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B65" s="72"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="15"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="19">
+      <c r="B66" s="63"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="18">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B66" s="72"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="76"/>
-      <c r="K66" s="15"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="23"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="15"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="30" t="s">
+      <c r="B67" s="63"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="14"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="44" t="s">
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G70" s="44"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="47" t="s">
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B72" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="35"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="51">
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="43">
         <v>1</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B73" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="35"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="51"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="35"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="58"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="52"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="35"/>
+      <c r="A74" s="43">
+        <v>2</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="58"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="58"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="58"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13" t="s">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79"/>
+      <c r="B79" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="3" t="s">
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="15"/>
-    </row>
-    <row r="79" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A79" s="122" t="s">
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="14"/>
+    </row>
+    <row r="81" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A81" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="122" t="s">
+      <c r="B81" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="103" t="s">
+      <c r="C81" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="120"/>
-      <c r="E79" s="101" t="s">
+      <c r="D81" s="103"/>
+      <c r="E81" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="101" t="s">
+      <c r="F81" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="G79" s="101" t="s">
+      <c r="G81" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H79" s="103" t="s">
+      <c r="H81" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I79" s="16"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="9"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="123"/>
-      <c r="B80" s="123"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="121"/>
-      <c r="E80" s="102"/>
-      <c r="F80" s="102"/>
-      <c r="G80" s="102"/>
-      <c r="H80" s="104"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="15"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="19">
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="9"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="102"/>
+      <c r="B82" s="102"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="104"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="94"/>
+      <c r="G82" s="94"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="14"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="18">
         <v>1</v>
       </c>
-      <c r="B81" s="70" t="s">
+      <c r="B83" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="86" t="s">
+      <c r="C83" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D81" s="89"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="92" t="s">
+      <c r="D83" s="80"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="I81" s="21"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="15"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="19">
-        <f>A81+1</f>
+      <c r="I83" s="20"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="14"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="18">
+        <f>A83+1</f>
         <v>2</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B84" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="86" t="s">
+      <c r="C84" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="89"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="93"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="15"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="19">
-        <f t="shared" ref="A83:A86" si="3">A82+1</f>
+      <c r="D84" s="80"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="14"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="18">
+        <f t="shared" ref="A85:A89" si="3">A84+1</f>
         <v>3</v>
       </c>
-      <c r="B83" s="128" t="s">
+      <c r="B85" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C83" s="88" t="s">
+      <c r="C85" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="90"/>
-      <c r="E83" s="89"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="20" t="s">
+      <c r="D85" s="81"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="93"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="15"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="19">
+      <c r="H85" s="84"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="14"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="18">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B84" s="130" t="s">
+      <c r="B86" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="131" t="s">
+      <c r="C86" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D84" s="132"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="125" t="s">
+      <c r="D86" s="92"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H84" s="126" t="s">
+      <c r="H86" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="I84" s="127"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="15"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="19">
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="14"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="18">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="87"/>
-      <c r="D85" s="129"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="93"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="15"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="19">
+      <c r="B87" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="89"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="84"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="14"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="18">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B86" s="72"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="94"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="76"/>
-      <c r="K86" s="15"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="23"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="95"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="15"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="14"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B89" s="63"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="14"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13" t="s">
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="86"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="14"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93"/>
+      <c r="B93" t="s">
         <v>43</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="3" t="s">
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="15"/>
-    </row>
-    <row r="92" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A92" s="105" t="s">
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="14"/>
+    </row>
+    <row r="95" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A95" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="105" t="s">
+      <c r="B95" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="103" t="s">
+      <c r="C95" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="106"/>
-      <c r="E92" s="108" t="s">
+      <c r="D95" s="98"/>
+      <c r="E95" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F92" s="101" t="s">
+      <c r="F95" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="G92" s="101" t="s">
+      <c r="G95" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H92" s="103" t="s">
+      <c r="H95" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I92" s="16"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="9"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="105"/>
-      <c r="B93" s="105"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="107"/>
-      <c r="E93" s="108"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="102"/>
-      <c r="H93" s="104"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="15"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="19">
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="9"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="97"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="100"/>
+      <c r="F96" s="94"/>
+      <c r="G96" s="94"/>
+      <c r="H96" s="96"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="14"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="18">
         <v>1</v>
       </c>
-      <c r="B94" s="70" t="s">
+      <c r="B97" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C94" s="86" t="s">
+      <c r="C97" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D94" s="89"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="68" t="s">
+      <c r="D97" s="80"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="20"/>
-      <c r="H94" s="92" t="s">
+      <c r="G97" s="19"/>
+      <c r="H97" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="I94" s="21"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="15"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="19">
-        <f>A94+1</f>
+      <c r="I97" s="20"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="14"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="18">
+        <f>A97+1</f>
         <v>2</v>
       </c>
-      <c r="B95" s="71" t="s">
+      <c r="B98" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C95" s="87" t="s">
+      <c r="C98" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D95" s="89"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="93" t="s">
+      <c r="D98" s="80"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="I95" s="21"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="15"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="19">
-        <f t="shared" ref="A96:A99" si="4">A95+1</f>
+      <c r="I98" s="20"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="14"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="18">
+        <f t="shared" ref="A99:A102" si="4">A98+1</f>
         <v>3</v>
       </c>
-      <c r="B96" s="71"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="93"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="15"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="19">
+      <c r="B99" s="62"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="84"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="14"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="18">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B97" s="130" t="s">
+      <c r="B100" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="131" t="s">
+      <c r="C100" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D97" s="132"/>
-      <c r="E97" s="124"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="125"/>
-      <c r="H97" s="126" t="s">
+      <c r="D100" s="92"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="I97" s="21"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="15"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="19">
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="14"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="18">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B98" s="72"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="93"/>
-      <c r="I98" s="21"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="15"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="19">
+      <c r="B101" s="63"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="80"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="84"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="14"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="18">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B99" s="72"/>
-      <c r="C99" s="88"/>
-      <c r="D99" s="90"/>
-      <c r="E99" s="84"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="73"/>
-      <c r="H99" s="94"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="76"/>
-      <c r="K99" s="15"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="23"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="91"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="95"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="15"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="85"/>
+      <c r="I102" s="66"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="14"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13" t="s">
+      <c r="A103" s="22"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="82"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="14"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106"/>
+      <c r="B106" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="3" t="s">
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="15"/>
-    </row>
-    <row r="105" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A105" s="105" t="s">
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="14"/>
+    </row>
+    <row r="108" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A108" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="105" t="s">
+      <c r="B108" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="103" t="s">
+      <c r="C108" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="106"/>
-      <c r="E105" s="108" t="s">
+      <c r="D108" s="98"/>
+      <c r="E108" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F105" s="101" t="s">
+      <c r="F108" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="G105" s="101" t="s">
+      <c r="G108" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H105" s="103" t="s">
+      <c r="H108" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I105" s="16"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="9"/>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="105"/>
-      <c r="B106" s="105"/>
-      <c r="C106" s="104"/>
-      <c r="D106" s="107"/>
-      <c r="E106" s="108"/>
-      <c r="F106" s="102"/>
-      <c r="G106" s="102"/>
-      <c r="H106" s="104"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="15"/>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="19">
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="9"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="97"/>
+      <c r="B109" s="97"/>
+      <c r="C109" s="96"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="100"/>
+      <c r="F109" s="94"/>
+      <c r="G109" s="94"/>
+      <c r="H109" s="96"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="14"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="18">
         <v>1</v>
       </c>
-      <c r="B107" s="70" t="s">
+      <c r="B110" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C107" s="86" t="s">
+      <c r="C110" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="89"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="92" t="s">
+      <c r="D110" s="80"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="I107" s="21"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="15"/>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="19">
-        <f>A107+1</f>
+      <c r="I110" s="20"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="14"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="18">
+        <f>A110+1</f>
         <v>2</v>
       </c>
-      <c r="B108" s="70" t="s">
+      <c r="B111" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C108" s="86" t="s">
+      <c r="C111" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D108" s="89"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="20" t="s">
+      <c r="D111" s="80"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H108" s="93" t="s">
+      <c r="H111" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="I108" s="21"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="15"/>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="19">
-        <f t="shared" ref="A109:A112" si="5">A108+1</f>
+      <c r="I111" s="20"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="14"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="18">
+        <f t="shared" ref="A112:A115" si="5">A111+1</f>
         <v>3</v>
       </c>
-      <c r="B109" s="130" t="s">
+      <c r="B112" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C109" s="131" t="s">
+      <c r="C112" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D109" s="132"/>
-      <c r="E109" s="124"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="125" t="s">
+      <c r="D112" s="92"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H109" s="126" t="s">
+      <c r="H112" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="I109" s="21"/>
-      <c r="J109" s="22"/>
-      <c r="K109" s="15"/>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="19">
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="14"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="18">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B110" s="72"/>
-      <c r="C110" s="88"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="68"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="93"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="15"/>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="19">
+      <c r="B113" s="63"/>
+      <c r="C113" s="79"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="84"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="14"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="18">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B111" s="72"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="89"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="93"/>
-      <c r="I111" s="21"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="15"/>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="19">
+      <c r="B114" s="63"/>
+      <c r="C114" s="79"/>
+      <c r="D114" s="80"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="84"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="14"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="18">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B112" s="72"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="90"/>
-      <c r="E112" s="84"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="73"/>
-      <c r="H112" s="94"/>
-      <c r="I112" s="75"/>
-      <c r="J112" s="76"/>
-      <c r="K112" s="15"/>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="23"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="91"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="95"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="15"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="81"/>
+      <c r="E115" s="75"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="66"/>
+      <c r="J115" s="67"/>
+      <c r="K115" s="14"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="13"/>
-      <c r="B116" s="13" t="s">
+      <c r="A116" s="22"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="82"/>
+      <c r="E116" s="76"/>
+      <c r="F116" s="60"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="86"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="26"/>
+      <c r="K116" s="14"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119"/>
+      <c r="B119" t="s">
         <v>43</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="3" t="s">
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="15"/>
-    </row>
-    <row r="118" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A118" s="105" t="s">
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="14"/>
+    </row>
+    <row r="121" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A121" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="105" t="s">
+      <c r="B121" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="103" t="s">
+      <c r="C121" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D118" s="106"/>
-      <c r="E118" s="108" t="s">
+      <c r="D121" s="98"/>
+      <c r="E121" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F118" s="101" t="s">
+      <c r="F121" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="G118" s="101" t="s">
+      <c r="G121" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H118" s="103" t="s">
+      <c r="H121" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I118" s="16"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="9"/>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="105"/>
-      <c r="B119" s="105"/>
-      <c r="C119" s="104"/>
-      <c r="D119" s="107"/>
-      <c r="E119" s="108"/>
-      <c r="F119" s="102"/>
-      <c r="G119" s="102"/>
-      <c r="H119" s="104"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="15"/>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="19">
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="9"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="97"/>
+      <c r="B122" s="97"/>
+      <c r="C122" s="96"/>
+      <c r="D122" s="99"/>
+      <c r="E122" s="100"/>
+      <c r="F122" s="94"/>
+      <c r="G122" s="94"/>
+      <c r="H122" s="96"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="14"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="18">
         <v>1</v>
       </c>
-      <c r="B120" s="70" t="s">
+      <c r="B123" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C120" s="86" t="s">
+      <c r="C123" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D120" s="89"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="68" t="s">
+      <c r="D123" s="80"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G120" s="20"/>
-      <c r="H120" s="92" t="s">
+      <c r="G123" s="19"/>
+      <c r="H123" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="I120" s="21"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="15"/>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="19">
-        <f>A120+1</f>
+      <c r="I123" s="20"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="14"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="18">
+        <f>A123+1</f>
         <v>2</v>
       </c>
-      <c r="B121" s="130" t="s">
+      <c r="B124" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C121" s="131" t="s">
+      <c r="C124" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D121" s="132"/>
-      <c r="E121" s="124"/>
-      <c r="F121" s="68"/>
-      <c r="G121" s="125"/>
-      <c r="H121" s="126" t="s">
+      <c r="D124" s="92"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="I121" s="21"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="15"/>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="19">
-        <f t="shared" ref="A122:A125" si="6">A121+1</f>
+      <c r="I124" s="20"/>
+      <c r="J124" s="27"/>
+      <c r="K124" s="14"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="18">
+        <f t="shared" ref="A125:A128" si="6">A124+1</f>
         <v>3</v>
       </c>
-      <c r="B122" s="71"/>
-      <c r="C122" s="87"/>
-      <c r="D122" s="89"/>
-      <c r="E122" s="89"/>
-      <c r="F122" s="68"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="93"/>
-      <c r="I122" s="21"/>
-      <c r="J122" s="22"/>
-      <c r="K122" s="15"/>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="19">
+      <c r="B125" s="62"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="80"/>
+      <c r="E125" s="80"/>
+      <c r="F125" s="59"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="84"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="14"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="18">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B123" s="72"/>
-      <c r="C123" s="88"/>
-      <c r="D123" s="89"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="68"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="93"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="15"/>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="19">
+      <c r="B126" s="63"/>
+      <c r="C126" s="79"/>
+      <c r="D126" s="80"/>
+      <c r="E126" s="74"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="84"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
+      <c r="K126" s="14"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="18">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B124" s="72"/>
-      <c r="C124" s="88"/>
-      <c r="D124" s="89"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="93"/>
-      <c r="I124" s="21"/>
-      <c r="J124" s="22"/>
-      <c r="K124" s="15"/>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="19">
+      <c r="B127" s="63"/>
+      <c r="C127" s="79"/>
+      <c r="D127" s="80"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="59"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="84"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
+      <c r="K127" s="14"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="18">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B125" s="72"/>
-      <c r="C125" s="88"/>
-      <c r="D125" s="90"/>
-      <c r="E125" s="84"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="73"/>
-      <c r="H125" s="94"/>
-      <c r="I125" s="75"/>
-      <c r="J125" s="76"/>
-      <c r="K125" s="15"/>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="23"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="91"/>
-      <c r="E126" s="85"/>
-      <c r="F126" s="69"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="95"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="27"/>
-      <c r="K126" s="15"/>
+      <c r="B128" s="63"/>
+      <c r="C128" s="79"/>
+      <c r="D128" s="81"/>
+      <c r="E128" s="75"/>
+      <c r="F128" s="65"/>
+      <c r="G128" s="64"/>
+      <c r="H128" s="85"/>
+      <c r="I128" s="66"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="14"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13" t="s">
+      <c r="A129" s="22"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="82"/>
+      <c r="E129" s="76"/>
+      <c r="F129" s="60"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="86"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="14"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132"/>
+      <c r="B132" t="s">
         <v>43</v>
       </c>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="3" t="s">
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="6"/>
-      <c r="K130" s="15"/>
-    </row>
-    <row r="131" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A131" s="105" t="s">
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="14"/>
+    </row>
+    <row r="134" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A134" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B131" s="105" t="s">
+      <c r="B134" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="103" t="s">
+      <c r="C134" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D131" s="106"/>
-      <c r="E131" s="108" t="s">
+      <c r="D134" s="98"/>
+      <c r="E134" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F131" s="101" t="s">
+      <c r="F134" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="G131" s="101" t="s">
+      <c r="G134" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H131" s="103" t="s">
+      <c r="H134" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I131" s="16"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="9"/>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="105"/>
-      <c r="B132" s="105"/>
-      <c r="C132" s="104"/>
-      <c r="D132" s="107"/>
-      <c r="E132" s="108"/>
-      <c r="F132" s="102"/>
-      <c r="G132" s="102"/>
-      <c r="H132" s="104"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="29"/>
-      <c r="K132" s="15"/>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="19">
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="9"/>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="97"/>
+      <c r="B135" s="97"/>
+      <c r="C135" s="96"/>
+      <c r="D135" s="99"/>
+      <c r="E135" s="100"/>
+      <c r="F135" s="94"/>
+      <c r="G135" s="94"/>
+      <c r="H135" s="96"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="14"/>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="18">
         <v>1</v>
       </c>
-      <c r="B133" s="70" t="s">
+      <c r="B136" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C133" s="86" t="s">
+      <c r="C136" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D133" s="89"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="92" t="s">
+      <c r="D136" s="80"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="59"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="I133" s="21"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="15"/>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="19">
-        <f>A133+1</f>
+      <c r="I136" s="20"/>
+      <c r="J136" s="27"/>
+      <c r="K136" s="14"/>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="18">
+        <f>A136+1</f>
         <v>2</v>
       </c>
-      <c r="B134" s="70" t="s">
+      <c r="B137" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C134" s="86" t="s">
+      <c r="C137" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D134" s="89"/>
-      <c r="E134" s="83"/>
-      <c r="F134" s="68"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="93" t="s">
+      <c r="D137" s="80"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="59"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="I134" s="21"/>
-      <c r="J134" s="28"/>
-      <c r="K134" s="15"/>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="19">
-        <f t="shared" ref="A135:A138" si="7">A134+1</f>
+      <c r="I137" s="20"/>
+      <c r="J137" s="27"/>
+      <c r="K137" s="14"/>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="18">
+        <f t="shared" ref="A138:A141" si="7">A137+1</f>
         <v>3</v>
       </c>
-      <c r="B135" s="130" t="s">
+      <c r="B138" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C135" s="131" t="s">
+      <c r="C138" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D135" s="132"/>
-      <c r="E135" s="124"/>
-      <c r="F135" s="68"/>
-      <c r="G135" s="125"/>
-      <c r="H135" s="126" t="s">
+      <c r="D138" s="92"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="59"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="I135" s="21"/>
-      <c r="J135" s="22"/>
-      <c r="K135" s="15"/>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="19">
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
+      <c r="K138" s="14"/>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="18">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="B136" s="72"/>
-      <c r="C136" s="88"/>
-      <c r="D136" s="89"/>
-      <c r="E136" s="83"/>
-      <c r="F136" s="68"/>
-      <c r="G136" s="20"/>
-      <c r="H136" s="93"/>
-      <c r="I136" s="21"/>
-      <c r="J136" s="22"/>
-      <c r="K136" s="15"/>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="19">
+      <c r="B139" s="63"/>
+      <c r="C139" s="79"/>
+      <c r="D139" s="80"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="59"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="84"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="14"/>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="18">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B137" s="72"/>
-      <c r="C137" s="88"/>
-      <c r="D137" s="89"/>
-      <c r="E137" s="83"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="93"/>
-      <c r="I137" s="21"/>
-      <c r="J137" s="22"/>
-      <c r="K137" s="15"/>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="19">
+      <c r="B140" s="63"/>
+      <c r="C140" s="79"/>
+      <c r="D140" s="80"/>
+      <c r="E140" s="74"/>
+      <c r="F140" s="59"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="84"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
+      <c r="K140" s="14"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="18">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="B138" s="72"/>
-      <c r="C138" s="88"/>
-      <c r="D138" s="90"/>
-      <c r="E138" s="84"/>
-      <c r="F138" s="74"/>
-      <c r="G138" s="73"/>
-      <c r="H138" s="94"/>
-      <c r="I138" s="75"/>
-      <c r="J138" s="76"/>
-      <c r="K138" s="15"/>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="23"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="91"/>
-      <c r="E139" s="85"/>
-      <c r="F139" s="69"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="95"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="27"/>
-      <c r="K139" s="15"/>
+      <c r="B141" s="63"/>
+      <c r="C141" s="79"/>
+      <c r="D141" s="81"/>
+      <c r="E141" s="75"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="64"/>
+      <c r="H141" s="85"/>
+      <c r="I141" s="66"/>
+      <c r="J141" s="67"/>
+      <c r="K141" s="14"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="13"/>
-      <c r="B142" s="13" t="s">
+      <c r="A142" s="22"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="82"/>
+      <c r="E142" s="76"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="86"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="26"/>
+      <c r="K142" s="14"/>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145"/>
+      <c r="B145" t="s">
         <v>43</v>
       </c>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="3" t="s">
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="6"/>
-      <c r="K143" s="15"/>
-    </row>
-    <row r="144" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A144" s="105" t="s">
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="14"/>
+    </row>
+    <row r="147" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A147" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B144" s="105" t="s">
+      <c r="B147" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="103" t="s">
+      <c r="C147" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="106"/>
-      <c r="E144" s="108" t="s">
+      <c r="D147" s="98"/>
+      <c r="E147" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F144" s="101" t="s">
+      <c r="F147" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="G144" s="101" t="s">
+      <c r="G147" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H144" s="103" t="s">
+      <c r="H147" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I144" s="16"/>
-      <c r="J144" s="17"/>
-      <c r="K144" s="9"/>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145" s="105"/>
-      <c r="B145" s="105"/>
-      <c r="C145" s="104"/>
-      <c r="D145" s="107"/>
-      <c r="E145" s="108"/>
-      <c r="F145" s="102"/>
-      <c r="G145" s="102"/>
-      <c r="H145" s="104"/>
-      <c r="I145" s="18"/>
-      <c r="J145" s="29"/>
-      <c r="K145" s="15"/>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146" s="19">
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="9"/>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="97"/>
+      <c r="B148" s="97"/>
+      <c r="C148" s="96"/>
+      <c r="D148" s="99"/>
+      <c r="E148" s="100"/>
+      <c r="F148" s="94"/>
+      <c r="G148" s="94"/>
+      <c r="H148" s="96"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="14"/>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="18">
         <v>1</v>
       </c>
-      <c r="B146" s="70" t="s">
+      <c r="B149" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C146" s="86" t="s">
+      <c r="C149" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D146" s="89"/>
-      <c r="E146" s="83"/>
-      <c r="F146" s="68"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="125" t="s">
+      <c r="D149" s="80"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="59"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I146" s="21"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="15"/>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147" s="19">
-        <f>A146+1</f>
+      <c r="I149" s="20"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="14"/>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="18">
+        <f>A149+1</f>
         <v>2</v>
       </c>
-      <c r="B147" s="130" t="s">
+      <c r="B150" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C147" s="131" t="s">
+      <c r="C150" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D147" s="132"/>
-      <c r="E147" s="124"/>
-      <c r="F147" s="68"/>
-      <c r="G147" s="125"/>
-      <c r="H147" s="126" t="s">
+      <c r="D150" s="92"/>
+      <c r="E150" s="74"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="I147" s="21"/>
-      <c r="J147" s="28"/>
-      <c r="K147" s="15"/>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148" s="19">
-        <f t="shared" ref="A148:A151" si="8">A147+1</f>
+      <c r="I150" s="20"/>
+      <c r="J150" s="27"/>
+      <c r="K150" s="14"/>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="18">
+        <f t="shared" ref="A151:A154" si="8">A150+1</f>
         <v>3</v>
       </c>
-      <c r="B148" s="130"/>
-      <c r="C148" s="131"/>
-      <c r="D148" s="132"/>
-      <c r="E148" s="124"/>
-      <c r="F148" s="68"/>
-      <c r="G148" s="125"/>
-      <c r="H148" s="126"/>
-      <c r="I148" s="21"/>
-      <c r="J148" s="22"/>
-      <c r="K148" s="15"/>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149" s="19">
+      <c r="B151" s="90"/>
+      <c r="C151" s="91"/>
+      <c r="D151" s="92"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="84"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
+      <c r="K151" s="14"/>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="18">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B149" s="72"/>
-      <c r="C149" s="88"/>
-      <c r="D149" s="89"/>
-      <c r="E149" s="83"/>
-      <c r="F149" s="68"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="93"/>
-      <c r="I149" s="21"/>
-      <c r="J149" s="22"/>
-      <c r="K149" s="15"/>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150" s="19">
+      <c r="B152" s="63"/>
+      <c r="C152" s="79"/>
+      <c r="D152" s="80"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="84"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
+      <c r="K152" s="14"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="18">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B150" s="72"/>
-      <c r="C150" s="88"/>
-      <c r="D150" s="89"/>
-      <c r="E150" s="83"/>
-      <c r="F150" s="68"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="93"/>
-      <c r="I150" s="21"/>
-      <c r="J150" s="22"/>
-      <c r="K150" s="15"/>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151" s="19">
+      <c r="B153" s="63"/>
+      <c r="C153" s="79"/>
+      <c r="D153" s="80"/>
+      <c r="E153" s="74"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="84"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
+      <c r="K153" s="14"/>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="18">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B151" s="72"/>
-      <c r="C151" s="88"/>
-      <c r="D151" s="90"/>
-      <c r="E151" s="84"/>
-      <c r="F151" s="74"/>
-      <c r="G151" s="73"/>
-      <c r="H151" s="94"/>
-      <c r="I151" s="75"/>
-      <c r="J151" s="76"/>
-      <c r="K151" s="15"/>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152" s="23"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="25"/>
-      <c r="D152" s="91"/>
-      <c r="E152" s="85"/>
-      <c r="F152" s="69"/>
-      <c r="G152" s="25"/>
-      <c r="H152" s="95"/>
-      <c r="I152" s="26"/>
-      <c r="J152" s="27"/>
-      <c r="K152" s="15"/>
+      <c r="B154" s="63"/>
+      <c r="C154" s="79"/>
+      <c r="D154" s="81"/>
+      <c r="E154" s="75"/>
+      <c r="F154" s="65"/>
+      <c r="G154" s="64"/>
+      <c r="H154" s="85"/>
+      <c r="I154" s="66"/>
+      <c r="J154" s="67"/>
+      <c r="K154" s="14"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="22"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="82"/>
+      <c r="E155" s="76"/>
+      <c r="F155" s="60"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="86"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="26"/>
+      <c r="K155" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="H144:H145"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="G47:H48"/>
+    <mergeCell ref="G60:H61"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A60:A61"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="G59:H60"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
@@ -4462,7 +4470,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{CCFC1331-CEEF-574E-9BCC-37D38F486896}">
       <formula1>adjustFieldName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F94:G100 F81:G87 F26:F34 F120:G126 F107:G113 F133:G139 F146:G152" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F97:G103 F149:G155 F123:G129 F110:G116 F136:G142 F83:G90 F27:F35" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
       <formula1>yesNo</formula1>
     </dataValidation>
   </dataValidations>
@@ -4487,79 +4495,79 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="55" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="55" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="251" width="8.83203125" style="55" customWidth="1"/>
-    <col min="252" max="16384" width="10.83203125" style="55"/>
+    <col min="1" max="3" width="8.83203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="47" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="47" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="251" width="8.83203125" style="47" customWidth="1"/>
+    <col min="252" max="16384" width="10.83203125" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="48" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="F4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="F5" s="60" t="s">
+      <c r="D5" s="52"/>
+      <c r="F5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="52" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="61"/>
+      <c r="B6" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
